--- a/Shablon/DSO9104A.xlsx
+++ b/Shablon/DSO9104A.xlsx
@@ -9,19 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="737">
   <si>
     <t>Установленый коэффицент отклонения, мВ/дел</t>
   </si>
@@ -729,26 +727,6 @@
   </si>
   <si>
     <t>Допустимое значение дрейфа нуля, мВ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">± </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1,4</t>
-    </r>
   </si>
   <si>
     <r>
@@ -3799,6 +3777,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3915,10 +3897,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4224,38 +4202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P228"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A98" zoomScale="115" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4275,24 +4225,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
+      <c r="A1" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -4313,24 +4263,24 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
+      <c r="A3" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
@@ -4354,7 +4304,7 @@
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4391,23 +4341,23 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
+      <c r="A7" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" s="2" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4430,7 +4380,7 @@
     </row>
     <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -4467,20 +4417,20 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="34"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="35"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -4491,20 +4441,20 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="31"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="32"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -4515,20 +4465,20 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="31"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="56"/>
+      <c r="G13" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="32"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -4539,20 +4489,20 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="31"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="32"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -4581,24 +4531,24 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
+      <c r="A16" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
     </row>
     <row r="17" spans="1:16" s="2" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
@@ -4620,7 +4570,7 @@
     </row>
     <row r="18" spans="1:16" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -4658,7 +4608,7 @@
     </row>
     <row r="20" spans="1:16" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -4696,7 +4646,7 @@
     </row>
     <row r="22" spans="1:16" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -4733,23 +4683,23 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
+      <c r="A24" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
       <c r="P24" s="15"/>
     </row>
     <row r="25" spans="1:16" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -4771,2481 +4721,2481 @@
       <c r="P25" s="15"/>
     </row>
     <row r="26" spans="1:16" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34" t="s">
+      <c r="C26" s="35"/>
+      <c r="D26" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34" t="s">
+      <c r="H26" s="35"/>
+      <c r="I26" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34" t="s">
+      <c r="N26" s="35"/>
+      <c r="O26" s="35" t="s">
         <v>37</v>
       </c>
       <c r="P26" s="15"/>
     </row>
     <row r="27" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
       <c r="P27" s="15"/>
     </row>
     <row r="28" spans="1:16" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
       <c r="P28" s="15"/>
     </row>
     <row r="29" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="31">
+      <c r="A29" s="32">
         <v>1</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="31"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41" t="s">
+      <c r="E29" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41" t="s">
+      <c r="J29" s="42"/>
+      <c r="K29" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="L29" s="41"/>
-      <c r="M29" s="42" t="e">
+      <c r="L29" s="42"/>
+      <c r="M29" s="43" t="e">
         <f>((I29-K29)/(E29-G29)-1)*75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N29" s="42"/>
-      <c r="O29" s="31" t="s">
+      <c r="N29" s="43"/>
+      <c r="O29" s="32" t="s">
         <v>38</v>
       </c>
       <c r="P29" s="15"/>
     </row>
     <row r="30" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31" t="s">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="31"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="L30" s="41"/>
-      <c r="M30" s="42" t="e">
+      <c r="E30" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="L30" s="42"/>
+      <c r="M30" s="43" t="e">
         <f t="shared" ref="M30:M35" si="0">((I30-K30)/(E30-G30)-1)*75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N30" s="42"/>
-      <c r="O30" s="31"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="32"/>
       <c r="P30" s="15"/>
     </row>
     <row r="31" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="31"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="L31" s="41"/>
-      <c r="M31" s="42" t="e">
+      <c r="E31" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="L31" s="42"/>
+      <c r="M31" s="43" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N31" s="42"/>
-      <c r="O31" s="31"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="32"/>
       <c r="P31" s="15"/>
     </row>
     <row r="32" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31" t="s">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="31"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="L32" s="41"/>
-      <c r="M32" s="42" t="e">
+      <c r="E32" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="L32" s="42"/>
+      <c r="M32" s="43" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N32" s="42"/>
-      <c r="O32" s="31"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="32"/>
       <c r="P32" s="15"/>
     </row>
     <row r="33" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="31"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="L33" s="41"/>
-      <c r="M33" s="42" t="e">
+      <c r="E33" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="L33" s="42"/>
+      <c r="M33" s="43" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N33" s="42"/>
-      <c r="O33" s="31"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="32"/>
       <c r="P33" s="15"/>
     </row>
     <row r="34" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31" t="s">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="31"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="L34" s="41"/>
-      <c r="M34" s="42" t="e">
+      <c r="E34" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="L34" s="42"/>
+      <c r="M34" s="43" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N34" s="42"/>
-      <c r="O34" s="31"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="32"/>
       <c r="P34" s="15"/>
     </row>
     <row r="35" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31" t="s">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="31"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="L35" s="41"/>
-      <c r="M35" s="42" t="e">
+      <c r="E35" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="L35" s="42"/>
+      <c r="M35" s="43" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N35" s="42"/>
-      <c r="O35" s="31"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="32"/>
       <c r="P35" s="15"/>
     </row>
     <row r="36" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31" t="s">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="31"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="L36" s="41"/>
-      <c r="M36" s="42" t="e">
+      <c r="E36" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="L36" s="42"/>
+      <c r="M36" s="43" t="e">
         <f>((I36-K36)/(E36-G36)-1)*60</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N36" s="42"/>
-      <c r="O36" s="31"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="32"/>
       <c r="P36" s="15"/>
     </row>
     <row r="37" spans="1:16" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34" t="s">
+      <c r="C37" s="35"/>
+      <c r="D37" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E37" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34" t="s">
+      <c r="H37" s="35"/>
+      <c r="I37" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34" t="s">
+      <c r="N37" s="35"/>
+      <c r="O37" s="35" t="s">
         <v>37</v>
       </c>
       <c r="P37" s="15"/>
     </row>
     <row r="38" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="44"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
       <c r="P38" s="15"/>
     </row>
     <row r="39" spans="1:16" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
       <c r="P39" s="15"/>
     </row>
     <row r="40" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="31">
+      <c r="A40" s="32">
         <v>1</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="31"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41" t="s">
+      <c r="E40" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41" t="s">
+      <c r="J40" s="42"/>
+      <c r="K40" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="L40" s="41"/>
-      <c r="M40" s="42" t="e">
+      <c r="L40" s="42"/>
+      <c r="M40" s="43" t="e">
         <f>((I40-K40)/(E40-G40)-1)*60</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N40" s="42"/>
-      <c r="O40" s="31" t="s">
+      <c r="N40" s="43"/>
+      <c r="O40" s="32" t="s">
         <v>38</v>
       </c>
       <c r="P40" s="15"/>
     </row>
     <row r="41" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31" t="s">
+      <c r="A41" s="32"/>
+      <c r="B41" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="31"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="L41" s="41"/>
-      <c r="M41" s="42" t="e">
+      <c r="E41" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="L41" s="42"/>
+      <c r="M41" s="43" t="e">
         <f>((I41-K41)/(E41-G41)-1)*60</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N41" s="42"/>
-      <c r="O41" s="31"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="32"/>
       <c r="P41" s="15"/>
     </row>
     <row r="42" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31" t="s">
+      <c r="A42" s="32"/>
+      <c r="B42" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="31"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="L42" s="41"/>
-      <c r="M42" s="42" t="e">
+      <c r="E42" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="L42" s="42"/>
+      <c r="M42" s="43" t="e">
         <f t="shared" ref="M42:M47" si="1">((I42-K42)/(E42-G42)-1)*75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N42" s="42"/>
-      <c r="O42" s="31"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="32"/>
       <c r="P42" s="15"/>
     </row>
     <row r="43" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31" t="s">
+      <c r="A43" s="32"/>
+      <c r="B43" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="31"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="L43" s="41"/>
-      <c r="M43" s="42" t="e">
+      <c r="E43" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="L43" s="42"/>
+      <c r="M43" s="43" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N43" s="42"/>
-      <c r="O43" s="31"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="32"/>
       <c r="P43" s="15"/>
     </row>
     <row r="44" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31" t="s">
+      <c r="A44" s="32"/>
+      <c r="B44" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="31"/>
+      <c r="C44" s="32"/>
       <c r="D44" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="L44" s="41"/>
-      <c r="M44" s="42" t="e">
+      <c r="E44" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="L44" s="42"/>
+      <c r="M44" s="43" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N44" s="42"/>
-      <c r="O44" s="31"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="32"/>
       <c r="P44" s="15"/>
     </row>
     <row r="45" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31" t="s">
+      <c r="A45" s="32"/>
+      <c r="B45" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="31"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="L45" s="41"/>
-      <c r="M45" s="42" t="e">
+      <c r="E45" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="L45" s="42"/>
+      <c r="M45" s="43" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N45" s="42"/>
-      <c r="O45" s="31"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="32"/>
       <c r="P45" s="15"/>
     </row>
     <row r="46" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31" t="s">
+      <c r="A46" s="32"/>
+      <c r="B46" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="31"/>
+      <c r="C46" s="32"/>
       <c r="D46" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="L46" s="41"/>
-      <c r="M46" s="42" t="e">
+      <c r="E46" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="L46" s="42"/>
+      <c r="M46" s="43" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N46" s="42"/>
-      <c r="O46" s="31"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="32"/>
       <c r="P46" s="15"/>
     </row>
     <row r="47" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31" t="s">
+      <c r="A47" s="32"/>
+      <c r="B47" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="31"/>
+      <c r="C47" s="32"/>
       <c r="D47" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="L47" s="41"/>
-      <c r="M47" s="42" t="e">
+      <c r="E47" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="L47" s="42"/>
+      <c r="M47" s="43" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N47" s="42"/>
-      <c r="O47" s="31"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="32"/>
       <c r="P47" s="15"/>
     </row>
     <row r="48" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31" t="s">
+      <c r="A48" s="32"/>
+      <c r="B48" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="31"/>
+      <c r="C48" s="32"/>
       <c r="D48" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="L48" s="41"/>
-      <c r="M48" s="42" t="e">
+      <c r="E48" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="L48" s="42"/>
+      <c r="M48" s="43" t="e">
         <f>((I48-K48)/(E48-G48)-1)*60</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N48" s="42"/>
-      <c r="O48" s="31"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="32"/>
       <c r="P48" s="15"/>
     </row>
     <row r="49" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="31">
+      <c r="A49" s="32">
         <v>2</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="31"/>
+      <c r="C49" s="32"/>
       <c r="D49" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="41" t="s">
+      <c r="E49" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41" t="s">
+      <c r="H49" s="42"/>
+      <c r="I49" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41" t="s">
+      <c r="J49" s="42"/>
+      <c r="K49" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="L49" s="41"/>
-      <c r="M49" s="42" t="e">
+      <c r="L49" s="42"/>
+      <c r="M49" s="43" t="e">
         <f>((I49-K49)/(E49-G49)-1)*75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N49" s="42"/>
-      <c r="O49" s="31"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="32"/>
       <c r="P49" s="15"/>
     </row>
     <row r="50" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31" t="s">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="31"/>
+      <c r="C50" s="32"/>
       <c r="D50" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41" t="s">
-        <v>269</v>
-      </c>
-      <c r="L50" s="41"/>
-      <c r="M50" s="42" t="e">
+      <c r="E50" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="L50" s="42"/>
+      <c r="M50" s="43" t="e">
         <f t="shared" ref="M50:M55" si="2">((I50-K50)/(E50-G50)-1)*75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N50" s="42"/>
-      <c r="O50" s="31"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="32"/>
       <c r="P50" s="15"/>
     </row>
     <row r="51" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31" t="s">
+      <c r="A51" s="32"/>
+      <c r="B51" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="31"/>
+      <c r="C51" s="32"/>
       <c r="D51" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E51" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="L51" s="41"/>
-      <c r="M51" s="42" t="e">
+      <c r="E51" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="L51" s="42"/>
+      <c r="M51" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N51" s="42"/>
-      <c r="O51" s="31"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="32"/>
       <c r="P51" s="15"/>
     </row>
     <row r="52" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31" t="s">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="31"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="L52" s="41"/>
-      <c r="M52" s="42" t="e">
+      <c r="E52" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="L52" s="42"/>
+      <c r="M52" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N52" s="42"/>
-      <c r="O52" s="31"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="32"/>
       <c r="P52" s="15"/>
     </row>
     <row r="53" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31" t="s">
+      <c r="A53" s="32"/>
+      <c r="B53" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="31"/>
+      <c r="C53" s="32"/>
       <c r="D53" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="L53" s="41"/>
-      <c r="M53" s="42" t="e">
+      <c r="E53" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="L53" s="42"/>
+      <c r="M53" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N53" s="42"/>
-      <c r="O53" s="31"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="32"/>
       <c r="P53" s="15"/>
     </row>
     <row r="54" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31" t="s">
+      <c r="A54" s="32"/>
+      <c r="B54" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="31"/>
+      <c r="C54" s="32"/>
       <c r="D54" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="L54" s="41"/>
-      <c r="M54" s="42" t="e">
+      <c r="E54" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="L54" s="42"/>
+      <c r="M54" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N54" s="42"/>
-      <c r="O54" s="31"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="32"/>
       <c r="P54" s="15"/>
     </row>
     <row r="55" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31" t="s">
+      <c r="A55" s="32"/>
+      <c r="B55" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="31"/>
+      <c r="C55" s="32"/>
       <c r="D55" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41" t="s">
-        <v>274</v>
-      </c>
-      <c r="L55" s="41"/>
-      <c r="M55" s="42" t="e">
+      <c r="E55" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="L55" s="42"/>
+      <c r="M55" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N55" s="42"/>
-      <c r="O55" s="31"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="32"/>
       <c r="P55" s="15"/>
     </row>
     <row r="56" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31" t="s">
+      <c r="A56" s="32"/>
+      <c r="B56" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="31"/>
+      <c r="C56" s="32"/>
       <c r="D56" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E56" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="L56" s="41"/>
-      <c r="M56" s="42" t="e">
+      <c r="E56" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="L56" s="42"/>
+      <c r="M56" s="43" t="e">
         <f>((I56-K56)/(E56-G56)-1)*60</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N56" s="42"/>
-      <c r="O56" s="31"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="32"/>
       <c r="P56" s="15"/>
     </row>
     <row r="57" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31" t="s">
+      <c r="A57" s="32"/>
+      <c r="B57" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="31"/>
+      <c r="C57" s="32"/>
       <c r="D57" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E57" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41" t="s">
-        <v>276</v>
-      </c>
-      <c r="L57" s="41"/>
-      <c r="M57" s="42" t="e">
+      <c r="E57" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="L57" s="42"/>
+      <c r="M57" s="43" t="e">
         <f>((I57-K57)/(E57-G57)-1)*60</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N57" s="42"/>
-      <c r="O57" s="31"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="32"/>
       <c r="P57" s="15"/>
     </row>
     <row r="58" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31" t="s">
+      <c r="A58" s="32"/>
+      <c r="B58" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="31"/>
+      <c r="C58" s="32"/>
       <c r="D58" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E58" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="L58" s="41"/>
-      <c r="M58" s="42" t="e">
+      <c r="E58" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="L58" s="42"/>
+      <c r="M58" s="43" t="e">
         <f>((I58-K58)/(E58-G58)-1)*60</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N58" s="42"/>
-      <c r="O58" s="31"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="32"/>
       <c r="P58" s="15"/>
     </row>
     <row r="59" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31" t="s">
+      <c r="A59" s="32"/>
+      <c r="B59" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="31"/>
+      <c r="C59" s="32"/>
       <c r="D59" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="L59" s="41"/>
-      <c r="M59" s="42" t="e">
+      <c r="E59" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="L59" s="42"/>
+      <c r="M59" s="43" t="e">
         <f t="shared" ref="M59:M64" si="3">((I59-K59)/(E59-G59)-1)*75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N59" s="42"/>
-      <c r="O59" s="31"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="32"/>
       <c r="P59" s="15"/>
     </row>
     <row r="60" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31" t="s">
+      <c r="A60" s="32"/>
+      <c r="B60" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="31"/>
+      <c r="C60" s="32"/>
       <c r="D60" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="L60" s="41"/>
-      <c r="M60" s="42" t="e">
+      <c r="E60" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="L60" s="42"/>
+      <c r="M60" s="43" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N60" s="42"/>
-      <c r="O60" s="31"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="32"/>
       <c r="P60" s="15"/>
     </row>
     <row r="61" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31" t="s">
+      <c r="A61" s="32"/>
+      <c r="B61" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="31"/>
+      <c r="C61" s="32"/>
       <c r="D61" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E61" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="L61" s="41"/>
-      <c r="M61" s="42" t="e">
+      <c r="E61" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="L61" s="42"/>
+      <c r="M61" s="43" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N61" s="42"/>
-      <c r="O61" s="31"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="32"/>
       <c r="P61" s="15"/>
     </row>
     <row r="62" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31" t="s">
+      <c r="A62" s="32"/>
+      <c r="B62" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="31"/>
+      <c r="C62" s="32"/>
       <c r="D62" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E62" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="L62" s="41"/>
-      <c r="M62" s="42" t="e">
+      <c r="E62" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="L62" s="42"/>
+      <c r="M62" s="43" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N62" s="42"/>
-      <c r="O62" s="31"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="32"/>
       <c r="P62" s="15"/>
     </row>
     <row r="63" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31" t="s">
+      <c r="A63" s="32"/>
+      <c r="B63" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="31"/>
+      <c r="C63" s="32"/>
       <c r="D63" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E63" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="L63" s="41"/>
-      <c r="M63" s="42" t="e">
+      <c r="E63" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="L63" s="42"/>
+      <c r="M63" s="43" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N63" s="42"/>
-      <c r="O63" s="31"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="32"/>
       <c r="P63" s="15"/>
     </row>
     <row r="64" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31" t="s">
+      <c r="A64" s="32"/>
+      <c r="B64" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="31"/>
+      <c r="C64" s="32"/>
       <c r="D64" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E64" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41" t="s">
-        <v>251</v>
-      </c>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="L64" s="41"/>
-      <c r="M64" s="42" t="e">
+      <c r="E64" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="L64" s="42"/>
+      <c r="M64" s="43" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N64" s="42"/>
-      <c r="O64" s="31"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="32"/>
       <c r="P64" s="15"/>
     </row>
     <row r="65" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31" t="s">
+      <c r="A65" s="32"/>
+      <c r="B65" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="31"/>
+      <c r="C65" s="32"/>
       <c r="D65" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E65" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41" t="s">
-        <v>252</v>
-      </c>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41" t="s">
-        <v>268</v>
-      </c>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="L65" s="41"/>
-      <c r="M65" s="42" t="e">
+      <c r="E65" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="L65" s="42"/>
+      <c r="M65" s="43" t="e">
         <f>((I65-K65)/(E65-G65)-1)*60</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N65" s="42"/>
-      <c r="O65" s="31"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="32"/>
       <c r="P65" s="15"/>
     </row>
     <row r="66" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="31">
+      <c r="A66" s="32">
         <v>3</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C66" s="31"/>
+      <c r="C66" s="32"/>
       <c r="D66" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="41" t="s">
+      <c r="E66" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41" t="s">
+      <c r="H66" s="42"/>
+      <c r="I66" s="42" t="s">
         <v>290</v>
       </c>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41" t="s">
+      <c r="J66" s="42"/>
+      <c r="K66" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="L66" s="41"/>
-      <c r="M66" s="42" t="e">
+      <c r="L66" s="42"/>
+      <c r="M66" s="43" t="e">
         <f>((I66-K66)/(E66-G66)-1)*75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N66" s="42"/>
-      <c r="O66" s="31"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="32"/>
       <c r="P66" s="15"/>
     </row>
     <row r="67" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31" t="s">
+      <c r="A67" s="32"/>
+      <c r="B67" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="31"/>
+      <c r="C67" s="32"/>
       <c r="D67" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="41" t="s">
-        <v>293</v>
-      </c>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41" t="s">
-        <v>307</v>
-      </c>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41" t="s">
-        <v>314</v>
-      </c>
-      <c r="L67" s="41"/>
-      <c r="M67" s="42" t="e">
+      <c r="E67" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="L67" s="42"/>
+      <c r="M67" s="43" t="e">
         <f t="shared" ref="M67:M72" si="4">((I67-K67)/(E67-G67)-1)*75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N67" s="42"/>
-      <c r="O67" s="31"/>
+      <c r="N67" s="43"/>
+      <c r="O67" s="32"/>
       <c r="P67" s="15"/>
     </row>
     <row r="68" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31" t="s">
+      <c r="A68" s="32"/>
+      <c r="B68" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="31"/>
+      <c r="C68" s="32"/>
       <c r="D68" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E68" s="41" t="s">
-        <v>294</v>
-      </c>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41" t="s">
-        <v>308</v>
-      </c>
-      <c r="J68" s="41"/>
-      <c r="K68" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="L68" s="41"/>
-      <c r="M68" s="42" t="e">
+      <c r="E68" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="L68" s="42"/>
+      <c r="M68" s="43" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N68" s="42"/>
-      <c r="O68" s="31"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="32"/>
       <c r="P68" s="15"/>
     </row>
     <row r="69" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31" t="s">
+      <c r="A69" s="32"/>
+      <c r="B69" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="31"/>
+      <c r="C69" s="32"/>
       <c r="D69" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41" t="s">
-        <v>302</v>
-      </c>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41" t="s">
-        <v>309</v>
-      </c>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41" t="s">
-        <v>316</v>
-      </c>
-      <c r="L69" s="41"/>
-      <c r="M69" s="42" t="e">
+      <c r="E69" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="L69" s="42"/>
+      <c r="M69" s="43" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N69" s="42"/>
-      <c r="O69" s="31"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="32"/>
       <c r="P69" s="15"/>
     </row>
     <row r="70" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31" t="s">
+      <c r="A70" s="32"/>
+      <c r="B70" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="31"/>
+      <c r="C70" s="32"/>
       <c r="D70" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E70" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41" t="s">
-        <v>310</v>
-      </c>
-      <c r="J70" s="41"/>
-      <c r="K70" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="L70" s="41"/>
-      <c r="M70" s="42" t="e">
+      <c r="E70" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="L70" s="42"/>
+      <c r="M70" s="43" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N70" s="42"/>
-      <c r="O70" s="31"/>
+      <c r="N70" s="43"/>
+      <c r="O70" s="32"/>
       <c r="P70" s="15"/>
     </row>
     <row r="71" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31" t="s">
+      <c r="A71" s="32"/>
+      <c r="B71" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="31"/>
+      <c r="C71" s="32"/>
       <c r="D71" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="J71" s="41"/>
-      <c r="K71" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="L71" s="41"/>
-      <c r="M71" s="42" t="e">
+      <c r="E71" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="L71" s="42"/>
+      <c r="M71" s="43" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N71" s="42"/>
-      <c r="O71" s="31"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="32"/>
       <c r="P71" s="15"/>
     </row>
     <row r="72" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31" t="s">
+      <c r="A72" s="32"/>
+      <c r="B72" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="31"/>
+      <c r="C72" s="32"/>
       <c r="D72" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E72" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41" t="s">
-        <v>305</v>
-      </c>
-      <c r="H72" s="41"/>
-      <c r="I72" s="41" t="s">
-        <v>312</v>
-      </c>
-      <c r="J72" s="41"/>
-      <c r="K72" s="41" t="s">
-        <v>319</v>
-      </c>
-      <c r="L72" s="41"/>
-      <c r="M72" s="42" t="e">
+      <c r="E72" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="L72" s="42"/>
+      <c r="M72" s="43" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N72" s="42"/>
-      <c r="O72" s="31"/>
+      <c r="N72" s="43"/>
+      <c r="O72" s="32"/>
       <c r="P72" s="15"/>
     </row>
     <row r="73" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31" t="s">
+      <c r="A73" s="32"/>
+      <c r="B73" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="31"/>
+      <c r="C73" s="32"/>
       <c r="D73" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E73" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41" t="s">
-        <v>306</v>
-      </c>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41" t="s">
-        <v>313</v>
-      </c>
-      <c r="J73" s="41"/>
-      <c r="K73" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="L73" s="41"/>
-      <c r="M73" s="42" t="e">
+      <c r="E73" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="L73" s="42"/>
+      <c r="M73" s="43" t="e">
         <f>((I73-K73)/(E73-G73)-1)*60</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N73" s="42"/>
-      <c r="O73" s="31"/>
+      <c r="N73" s="43"/>
+      <c r="O73" s="32"/>
       <c r="P73" s="15"/>
     </row>
     <row r="74" spans="1:16" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="43" t="s">
+      <c r="A74" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34" t="s">
+      <c r="C74" s="35"/>
+      <c r="D74" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="34" t="s">
+      <c r="E74" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34" t="s">
+      <c r="H74" s="35"/>
+      <c r="I74" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L74" s="34"/>
-      <c r="M74" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="N74" s="34"/>
-      <c r="O74" s="34" t="s">
+      <c r="N74" s="35"/>
+      <c r="O74" s="35" t="s">
         <v>37</v>
       </c>
       <c r="P74" s="15"/>
     </row>
     <row r="75" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="44"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="34"/>
-      <c r="L75" s="34"/>
-      <c r="M75" s="34"/>
-      <c r="N75" s="34"/>
-      <c r="O75" s="34"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
       <c r="P75" s="15"/>
     </row>
     <row r="76" spans="1:16" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="45"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="34"/>
-      <c r="L76" s="34"/>
-      <c r="M76" s="34"/>
-      <c r="N76" s="34"/>
-      <c r="O76" s="34"/>
+      <c r="A76" s="46"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
+      <c r="O76" s="35"/>
       <c r="P76" s="15"/>
     </row>
     <row r="77" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="31">
+      <c r="A77" s="32">
         <v>3</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="31"/>
+      <c r="C77" s="32"/>
       <c r="D77" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E77" s="41" t="s">
+      <c r="E77" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41" t="s">
+      <c r="H77" s="42"/>
+      <c r="I77" s="42" t="s">
         <v>322</v>
       </c>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41" t="s">
+      <c r="J77" s="42"/>
+      <c r="K77" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="J77" s="41"/>
-      <c r="K77" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="L77" s="41"/>
-      <c r="M77" s="42" t="e">
+      <c r="L77" s="42"/>
+      <c r="M77" s="43" t="e">
         <f>((I77-K77)/(E77-G77)-1)*60</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N77" s="42"/>
-      <c r="O77" s="31" t="s">
+      <c r="N77" s="43"/>
+      <c r="O77" s="32" t="s">
         <v>38</v>
       </c>
       <c r="P77" s="15"/>
     </row>
     <row r="78" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31" t="s">
+      <c r="A78" s="32"/>
+      <c r="B78" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="31"/>
+      <c r="C78" s="32"/>
       <c r="D78" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E78" s="41" t="s">
-        <v>325</v>
-      </c>
-      <c r="F78" s="41"/>
-      <c r="G78" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41" t="s">
-        <v>339</v>
-      </c>
-      <c r="J78" s="41"/>
-      <c r="K78" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="L78" s="41"/>
-      <c r="M78" s="42" t="e">
+      <c r="E78" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="L78" s="42"/>
+      <c r="M78" s="43" t="e">
         <f>((I78-K78)/(E78-G78)-1)*60</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N78" s="42"/>
-      <c r="O78" s="31"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="32"/>
       <c r="P78" s="15"/>
     </row>
     <row r="79" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31" t="s">
+      <c r="A79" s="32"/>
+      <c r="B79" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="31"/>
+      <c r="C79" s="32"/>
       <c r="D79" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E79" s="41" t="s">
-        <v>326</v>
-      </c>
-      <c r="F79" s="41"/>
-      <c r="G79" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41" t="s">
-        <v>340</v>
-      </c>
-      <c r="J79" s="41"/>
-      <c r="K79" s="41" t="s">
-        <v>347</v>
-      </c>
-      <c r="L79" s="41"/>
-      <c r="M79" s="42" t="e">
+      <c r="E79" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="L79" s="42"/>
+      <c r="M79" s="43" t="e">
         <f t="shared" ref="M79:M84" si="5">((I79-K79)/(E79-G79)-1)*75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N79" s="42"/>
-      <c r="O79" s="31"/>
+      <c r="N79" s="43"/>
+      <c r="O79" s="32"/>
       <c r="P79" s="15"/>
     </row>
     <row r="80" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31" t="s">
+      <c r="A80" s="32"/>
+      <c r="B80" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="31"/>
+      <c r="C80" s="32"/>
       <c r="D80" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E80" s="41" t="s">
-        <v>327</v>
-      </c>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41" t="s">
-        <v>334</v>
-      </c>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="J80" s="41"/>
-      <c r="K80" s="41" t="s">
-        <v>348</v>
-      </c>
-      <c r="L80" s="41"/>
-      <c r="M80" s="42" t="e">
+      <c r="E80" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="L80" s="42"/>
+      <c r="M80" s="43" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N80" s="42"/>
-      <c r="O80" s="31"/>
+      <c r="N80" s="43"/>
+      <c r="O80" s="32"/>
       <c r="P80" s="15"/>
     </row>
     <row r="81" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="31"/>
-      <c r="B81" s="31" t="s">
+      <c r="A81" s="32"/>
+      <c r="B81" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="31"/>
+      <c r="C81" s="32"/>
       <c r="D81" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E81" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="F81" s="41"/>
-      <c r="G81" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="H81" s="41"/>
-      <c r="I81" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="J81" s="41"/>
-      <c r="K81" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="L81" s="41"/>
-      <c r="M81" s="42" t="e">
+      <c r="E81" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="L81" s="42"/>
+      <c r="M81" s="43" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N81" s="42"/>
-      <c r="O81" s="31"/>
+      <c r="N81" s="43"/>
+      <c r="O81" s="32"/>
       <c r="P81" s="15"/>
     </row>
     <row r="82" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="31"/>
-      <c r="B82" s="31" t="s">
+      <c r="A82" s="32"/>
+      <c r="B82" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C82" s="31"/>
+      <c r="C82" s="32"/>
       <c r="D82" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E82" s="41" t="s">
-        <v>329</v>
-      </c>
-      <c r="F82" s="41"/>
-      <c r="G82" s="41" t="s">
-        <v>336</v>
-      </c>
-      <c r="H82" s="41"/>
-      <c r="I82" s="41" t="s">
-        <v>343</v>
-      </c>
-      <c r="J82" s="41"/>
-      <c r="K82" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="L82" s="41"/>
-      <c r="M82" s="42" t="e">
+      <c r="E82" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42" t="s">
+        <v>342</v>
+      </c>
+      <c r="J82" s="42"/>
+      <c r="K82" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="L82" s="42"/>
+      <c r="M82" s="43" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N82" s="42"/>
-      <c r="O82" s="31"/>
+      <c r="N82" s="43"/>
+      <c r="O82" s="32"/>
       <c r="P82" s="15"/>
     </row>
     <row r="83" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="31"/>
-      <c r="B83" s="31" t="s">
+      <c r="A83" s="32"/>
+      <c r="B83" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="31"/>
+      <c r="C83" s="32"/>
       <c r="D83" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E83" s="41" t="s">
-        <v>330</v>
-      </c>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41" t="s">
-        <v>337</v>
-      </c>
-      <c r="H83" s="41"/>
-      <c r="I83" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="J83" s="41"/>
-      <c r="K83" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="L83" s="41"/>
-      <c r="M83" s="42" t="e">
+      <c r="E83" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="J83" s="42"/>
+      <c r="K83" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="L83" s="42"/>
+      <c r="M83" s="43" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N83" s="42"/>
-      <c r="O83" s="31"/>
+      <c r="N83" s="43"/>
+      <c r="O83" s="32"/>
       <c r="P83" s="15"/>
     </row>
     <row r="84" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="31"/>
-      <c r="B84" s="31" t="s">
+      <c r="A84" s="32"/>
+      <c r="B84" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="31"/>
+      <c r="C84" s="32"/>
       <c r="D84" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E84" s="41" t="s">
-        <v>331</v>
-      </c>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="H84" s="41"/>
-      <c r="I84" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="J84" s="41"/>
-      <c r="K84" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="L84" s="41"/>
-      <c r="M84" s="42" t="e">
+      <c r="E84" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="J84" s="42"/>
+      <c r="K84" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="L84" s="42"/>
+      <c r="M84" s="43" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N84" s="42"/>
-      <c r="O84" s="31"/>
+      <c r="N84" s="43"/>
+      <c r="O84" s="32"/>
       <c r="P84" s="15"/>
     </row>
     <row r="85" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="31"/>
-      <c r="B85" s="31" t="s">
+      <c r="A85" s="32"/>
+      <c r="B85" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C85" s="31"/>
+      <c r="C85" s="32"/>
       <c r="D85" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E85" s="41" t="s">
+      <c r="E85" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="F85" s="41"/>
-      <c r="G85" s="41" t="s">
+      <c r="H85" s="42"/>
+      <c r="I85" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="H85" s="41"/>
-      <c r="I85" s="41" t="s">
+      <c r="J85" s="42"/>
+      <c r="K85" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="J85" s="41"/>
-      <c r="K85" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="L85" s="41"/>
-      <c r="M85" s="42" t="e">
+      <c r="L85" s="42"/>
+      <c r="M85" s="43" t="e">
         <f>((I85-K85)/(E85-G85)-1)*60</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N85" s="42"/>
-      <c r="O85" s="31"/>
+      <c r="N85" s="43"/>
+      <c r="O85" s="32"/>
       <c r="P85" s="15"/>
     </row>
     <row r="86" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="31">
+      <c r="A86" s="32">
         <v>4</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C86" s="31"/>
+      <c r="C86" s="32"/>
       <c r="D86" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E86" s="41" t="s">
+      <c r="E86" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42" t="s">
         <v>353</v>
       </c>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41" t="s">
+      <c r="H86" s="42"/>
+      <c r="I86" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="H86" s="41"/>
-      <c r="I86" s="41" t="s">
+      <c r="J86" s="42"/>
+      <c r="K86" s="42" t="s">
         <v>355</v>
       </c>
-      <c r="J86" s="41"/>
-      <c r="K86" s="41" t="s">
-        <v>356</v>
-      </c>
-      <c r="L86" s="41"/>
-      <c r="M86" s="42" t="e">
+      <c r="L86" s="42"/>
+      <c r="M86" s="43" t="e">
         <f>((I86-K86)/(E86-G86)-1)*75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N86" s="42"/>
-      <c r="O86" s="31"/>
+      <c r="N86" s="43"/>
+      <c r="O86" s="32"/>
       <c r="P86" s="15"/>
     </row>
     <row r="87" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="31"/>
-      <c r="B87" s="31" t="s">
+      <c r="A87" s="32"/>
+      <c r="B87" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C87" s="31"/>
+      <c r="C87" s="32"/>
       <c r="D87" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E87" s="41" t="s">
-        <v>357</v>
-      </c>
-      <c r="F87" s="41"/>
-      <c r="G87" s="41" t="s">
-        <v>373</v>
-      </c>
-      <c r="H87" s="41"/>
-      <c r="I87" s="41" t="s">
-        <v>389</v>
-      </c>
-      <c r="J87" s="41"/>
-      <c r="K87" s="41" t="s">
-        <v>405</v>
-      </c>
-      <c r="L87" s="41"/>
-      <c r="M87" s="42" t="e">
+      <c r="E87" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="L87" s="42"/>
+      <c r="M87" s="43" t="e">
         <f t="shared" ref="M87:M92" si="6">((I87-K87)/(E87-G87)-1)*75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N87" s="42"/>
-      <c r="O87" s="31"/>
+      <c r="N87" s="43"/>
+      <c r="O87" s="32"/>
       <c r="P87" s="15"/>
     </row>
     <row r="88" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="31"/>
-      <c r="B88" s="31" t="s">
+      <c r="A88" s="32"/>
+      <c r="B88" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C88" s="31"/>
+      <c r="C88" s="32"/>
       <c r="D88" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E88" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="F88" s="41"/>
-      <c r="G88" s="41" t="s">
-        <v>374</v>
-      </c>
-      <c r="H88" s="41"/>
-      <c r="I88" s="41" t="s">
-        <v>390</v>
-      </c>
-      <c r="J88" s="41"/>
-      <c r="K88" s="41" t="s">
-        <v>406</v>
-      </c>
-      <c r="L88" s="41"/>
-      <c r="M88" s="42" t="e">
+      <c r="E88" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="J88" s="42"/>
+      <c r="K88" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="L88" s="42"/>
+      <c r="M88" s="43" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N88" s="42"/>
-      <c r="O88" s="31"/>
+      <c r="N88" s="43"/>
+      <c r="O88" s="32"/>
       <c r="P88" s="15"/>
     </row>
     <row r="89" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="31"/>
-      <c r="B89" s="31" t="s">
+      <c r="A89" s="32"/>
+      <c r="B89" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="31"/>
+      <c r="C89" s="32"/>
       <c r="D89" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E89" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="F89" s="41"/>
-      <c r="G89" s="41" t="s">
-        <v>375</v>
-      </c>
-      <c r="H89" s="41"/>
-      <c r="I89" s="41" t="s">
-        <v>391</v>
-      </c>
-      <c r="J89" s="41"/>
-      <c r="K89" s="41" t="s">
-        <v>407</v>
-      </c>
-      <c r="L89" s="41"/>
-      <c r="M89" s="42" t="e">
+      <c r="E89" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="F89" s="42"/>
+      <c r="G89" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="J89" s="42"/>
+      <c r="K89" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="L89" s="42"/>
+      <c r="M89" s="43" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N89" s="42"/>
-      <c r="O89" s="31"/>
+      <c r="N89" s="43"/>
+      <c r="O89" s="32"/>
       <c r="P89" s="15"/>
     </row>
     <row r="90" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="31"/>
-      <c r="B90" s="31" t="s">
+      <c r="A90" s="32"/>
+      <c r="B90" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C90" s="31"/>
+      <c r="C90" s="32"/>
       <c r="D90" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E90" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="F90" s="41"/>
-      <c r="G90" s="41" t="s">
-        <v>376</v>
-      </c>
-      <c r="H90" s="41"/>
-      <c r="I90" s="41" t="s">
-        <v>392</v>
-      </c>
-      <c r="J90" s="41"/>
-      <c r="K90" s="41" t="s">
-        <v>408</v>
-      </c>
-      <c r="L90" s="41"/>
-      <c r="M90" s="42" t="e">
+      <c r="E90" s="42" t="s">
+        <v>359</v>
+      </c>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="J90" s="42"/>
+      <c r="K90" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="L90" s="42"/>
+      <c r="M90" s="43" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N90" s="42"/>
-      <c r="O90" s="31"/>
+      <c r="N90" s="43"/>
+      <c r="O90" s="32"/>
       <c r="P90" s="15"/>
     </row>
     <row r="91" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="31"/>
-      <c r="B91" s="31" t="s">
+      <c r="A91" s="32"/>
+      <c r="B91" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C91" s="31"/>
+      <c r="C91" s="32"/>
       <c r="D91" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E91" s="41" t="s">
-        <v>361</v>
-      </c>
-      <c r="F91" s="41"/>
-      <c r="G91" s="41" t="s">
-        <v>377</v>
-      </c>
-      <c r="H91" s="41"/>
-      <c r="I91" s="41" t="s">
-        <v>393</v>
-      </c>
-      <c r="J91" s="41"/>
-      <c r="K91" s="41" t="s">
-        <v>409</v>
-      </c>
-      <c r="L91" s="41"/>
-      <c r="M91" s="42" t="e">
+      <c r="E91" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="J91" s="42"/>
+      <c r="K91" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="L91" s="42"/>
+      <c r="M91" s="43" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N91" s="42"/>
-      <c r="O91" s="31"/>
+      <c r="N91" s="43"/>
+      <c r="O91" s="32"/>
       <c r="P91" s="15"/>
     </row>
     <row r="92" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="31"/>
-      <c r="B92" s="31" t="s">
+      <c r="A92" s="32"/>
+      <c r="B92" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C92" s="31"/>
+      <c r="C92" s="32"/>
       <c r="D92" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E92" s="41" t="s">
-        <v>362</v>
-      </c>
-      <c r="F92" s="41"/>
-      <c r="G92" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="H92" s="41"/>
-      <c r="I92" s="41" t="s">
-        <v>394</v>
-      </c>
-      <c r="J92" s="41"/>
-      <c r="K92" s="41" t="s">
-        <v>410</v>
-      </c>
-      <c r="L92" s="41"/>
-      <c r="M92" s="42" t="e">
+      <c r="E92" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="J92" s="42"/>
+      <c r="K92" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="L92" s="42"/>
+      <c r="M92" s="43" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N92" s="42"/>
-      <c r="O92" s="31"/>
+      <c r="N92" s="43"/>
+      <c r="O92" s="32"/>
       <c r="P92" s="15"/>
     </row>
     <row r="93" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="31"/>
-      <c r="B93" s="31" t="s">
+      <c r="A93" s="32"/>
+      <c r="B93" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C93" s="31"/>
+      <c r="C93" s="32"/>
       <c r="D93" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E93" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41" t="s">
-        <v>379</v>
-      </c>
-      <c r="H93" s="41"/>
-      <c r="I93" s="41" t="s">
-        <v>395</v>
-      </c>
-      <c r="J93" s="41"/>
-      <c r="K93" s="41" t="s">
-        <v>411</v>
-      </c>
-      <c r="L93" s="41"/>
-      <c r="M93" s="42" t="e">
+      <c r="E93" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="F93" s="42"/>
+      <c r="G93" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="J93" s="42"/>
+      <c r="K93" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="L93" s="42"/>
+      <c r="M93" s="43" t="e">
         <f>((I93-K93)/(E93-G93)-1)*60</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N93" s="42"/>
-      <c r="O93" s="31"/>
+      <c r="N93" s="43"/>
+      <c r="O93" s="32"/>
       <c r="P93" s="15"/>
     </row>
     <row r="94" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="31"/>
-      <c r="B94" s="31" t="s">
+      <c r="A94" s="32"/>
+      <c r="B94" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="31"/>
+      <c r="C94" s="32"/>
       <c r="D94" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E94" s="41" t="s">
-        <v>364</v>
-      </c>
-      <c r="F94" s="41"/>
-      <c r="G94" s="41" t="s">
-        <v>380</v>
-      </c>
-      <c r="H94" s="41"/>
-      <c r="I94" s="41" t="s">
-        <v>396</v>
-      </c>
-      <c r="J94" s="41"/>
-      <c r="K94" s="41" t="s">
-        <v>412</v>
-      </c>
-      <c r="L94" s="41"/>
-      <c r="M94" s="42" t="e">
+      <c r="E94" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="H94" s="42"/>
+      <c r="I94" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="J94" s="42"/>
+      <c r="K94" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="L94" s="42"/>
+      <c r="M94" s="43" t="e">
         <f>((I94-K94)/(E94-G94)-1)*60</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N94" s="42"/>
-      <c r="O94" s="31"/>
+      <c r="N94" s="43"/>
+      <c r="O94" s="32"/>
       <c r="P94" s="15"/>
     </row>
     <row r="95" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="31"/>
-      <c r="B95" s="31" t="s">
+      <c r="A95" s="32"/>
+      <c r="B95" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="31"/>
+      <c r="C95" s="32"/>
       <c r="D95" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E95" s="41" t="s">
-        <v>365</v>
-      </c>
-      <c r="F95" s="41"/>
-      <c r="G95" s="41" t="s">
-        <v>381</v>
-      </c>
-      <c r="H95" s="41"/>
-      <c r="I95" s="41" t="s">
-        <v>397</v>
-      </c>
-      <c r="J95" s="41"/>
-      <c r="K95" s="41" t="s">
-        <v>413</v>
-      </c>
-      <c r="L95" s="41"/>
-      <c r="M95" s="42" t="e">
+      <c r="E95" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="J95" s="42"/>
+      <c r="K95" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="L95" s="42"/>
+      <c r="M95" s="43" t="e">
         <f>((I95-K95)/(E95-G95)-1)*60</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N95" s="42"/>
-      <c r="O95" s="31"/>
+      <c r="N95" s="43"/>
+      <c r="O95" s="32"/>
       <c r="P95" s="15"/>
     </row>
     <row r="96" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="31"/>
-      <c r="B96" s="31" t="s">
+      <c r="A96" s="32"/>
+      <c r="B96" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="31"/>
+      <c r="C96" s="32"/>
       <c r="D96" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E96" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41" t="s">
-        <v>382</v>
-      </c>
-      <c r="H96" s="41"/>
-      <c r="I96" s="41" t="s">
-        <v>398</v>
-      </c>
-      <c r="J96" s="41"/>
-      <c r="K96" s="41" t="s">
-        <v>414</v>
-      </c>
-      <c r="L96" s="41"/>
-      <c r="M96" s="42" t="e">
+      <c r="E96" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42" t="s">
+        <v>397</v>
+      </c>
+      <c r="J96" s="42"/>
+      <c r="K96" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="L96" s="42"/>
+      <c r="M96" s="43" t="e">
         <f t="shared" ref="M96:M101" si="7">((I96-K96)/(E96-G96)-1)*75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N96" s="42"/>
-      <c r="O96" s="31"/>
+      <c r="N96" s="43"/>
+      <c r="O96" s="32"/>
       <c r="P96" s="15"/>
     </row>
     <row r="97" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="31"/>
-      <c r="B97" s="31" t="s">
+      <c r="A97" s="32"/>
+      <c r="B97" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="31"/>
+      <c r="C97" s="32"/>
       <c r="D97" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E97" s="41" t="s">
-        <v>367</v>
-      </c>
-      <c r="F97" s="41"/>
-      <c r="G97" s="41" t="s">
-        <v>383</v>
-      </c>
-      <c r="H97" s="41"/>
-      <c r="I97" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="J97" s="41"/>
-      <c r="K97" s="41" t="s">
-        <v>415</v>
-      </c>
-      <c r="L97" s="41"/>
-      <c r="M97" s="42" t="e">
+      <c r="E97" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="J97" s="42"/>
+      <c r="K97" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="L97" s="42"/>
+      <c r="M97" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N97" s="42"/>
-      <c r="O97" s="31"/>
+      <c r="N97" s="43"/>
+      <c r="O97" s="32"/>
       <c r="P97" s="15"/>
     </row>
     <row r="98" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="31"/>
-      <c r="B98" s="31" t="s">
+      <c r="A98" s="32"/>
+      <c r="B98" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C98" s="31"/>
+      <c r="C98" s="32"/>
       <c r="D98" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E98" s="41" t="s">
-        <v>368</v>
-      </c>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41" t="s">
-        <v>384</v>
-      </c>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41" t="s">
-        <v>400</v>
-      </c>
-      <c r="J98" s="41"/>
-      <c r="K98" s="41" t="s">
-        <v>416</v>
-      </c>
-      <c r="L98" s="41"/>
-      <c r="M98" s="42" t="e">
+      <c r="E98" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="F98" s="42"/>
+      <c r="G98" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="H98" s="42"/>
+      <c r="I98" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="J98" s="42"/>
+      <c r="K98" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="L98" s="42"/>
+      <c r="M98" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N98" s="42"/>
-      <c r="O98" s="31"/>
+      <c r="N98" s="43"/>
+      <c r="O98" s="32"/>
       <c r="P98" s="15"/>
     </row>
     <row r="99" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="31"/>
-      <c r="B99" s="31" t="s">
+      <c r="A99" s="32"/>
+      <c r="B99" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C99" s="31"/>
+      <c r="C99" s="32"/>
       <c r="D99" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E99" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="F99" s="41"/>
-      <c r="G99" s="41" t="s">
-        <v>385</v>
-      </c>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41" t="s">
-        <v>401</v>
-      </c>
-      <c r="J99" s="41"/>
-      <c r="K99" s="41" t="s">
-        <v>417</v>
-      </c>
-      <c r="L99" s="41"/>
-      <c r="M99" s="42" t="e">
+      <c r="E99" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="F99" s="42"/>
+      <c r="G99" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="J99" s="42"/>
+      <c r="K99" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="L99" s="42"/>
+      <c r="M99" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N99" s="42"/>
-      <c r="O99" s="31"/>
+      <c r="N99" s="43"/>
+      <c r="O99" s="32"/>
       <c r="P99" s="15"/>
     </row>
     <row r="100" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="31"/>
-      <c r="B100" s="31" t="s">
+      <c r="A100" s="32"/>
+      <c r="B100" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C100" s="31"/>
+      <c r="C100" s="32"/>
       <c r="D100" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E100" s="41" t="s">
-        <v>370</v>
-      </c>
-      <c r="F100" s="41"/>
-      <c r="G100" s="41" t="s">
-        <v>386</v>
-      </c>
-      <c r="H100" s="41"/>
-      <c r="I100" s="41" t="s">
-        <v>402</v>
-      </c>
-      <c r="J100" s="41"/>
-      <c r="K100" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="L100" s="41"/>
-      <c r="M100" s="42" t="e">
+      <c r="E100" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="F100" s="42"/>
+      <c r="G100" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="J100" s="42"/>
+      <c r="K100" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="L100" s="42"/>
+      <c r="M100" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N100" s="42"/>
-      <c r="O100" s="31"/>
+      <c r="N100" s="43"/>
+      <c r="O100" s="32"/>
       <c r="P100" s="15"/>
     </row>
     <row r="101" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="31"/>
-      <c r="B101" s="31" t="s">
+      <c r="A101" s="32"/>
+      <c r="B101" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C101" s="31"/>
+      <c r="C101" s="32"/>
       <c r="D101" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E101" s="41" t="s">
-        <v>371</v>
-      </c>
-      <c r="F101" s="41"/>
-      <c r="G101" s="41" t="s">
-        <v>387</v>
-      </c>
-      <c r="H101" s="41"/>
-      <c r="I101" s="41" t="s">
-        <v>403</v>
-      </c>
-      <c r="J101" s="41"/>
-      <c r="K101" s="41" t="s">
-        <v>419</v>
-      </c>
-      <c r="L101" s="41"/>
-      <c r="M101" s="42" t="e">
+      <c r="E101" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="F101" s="42"/>
+      <c r="G101" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42" t="s">
+        <v>402</v>
+      </c>
+      <c r="J101" s="42"/>
+      <c r="K101" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="L101" s="42"/>
+      <c r="M101" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N101" s="42"/>
-      <c r="O101" s="31"/>
+      <c r="N101" s="43"/>
+      <c r="O101" s="32"/>
       <c r="P101" s="15"/>
     </row>
     <row r="102" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="31"/>
-      <c r="B102" s="31" t="s">
+      <c r="A102" s="32"/>
+      <c r="B102" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C102" s="31"/>
+      <c r="C102" s="32"/>
       <c r="D102" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E102" s="41" t="s">
-        <v>372</v>
-      </c>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41" t="s">
-        <v>388</v>
-      </c>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41" t="s">
-        <v>404</v>
-      </c>
-      <c r="J102" s="41"/>
-      <c r="K102" s="41" t="s">
-        <v>420</v>
-      </c>
-      <c r="L102" s="41"/>
-      <c r="M102" s="42" t="e">
+      <c r="E102" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="J102" s="42"/>
+      <c r="K102" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="L102" s="42"/>
+      <c r="M102" s="43" t="e">
         <f>((I102-K102)/(E102-G102)-1)*60</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N102" s="42"/>
-      <c r="O102" s="31"/>
+      <c r="N102" s="43"/>
+      <c r="O102" s="32"/>
       <c r="P102" s="15"/>
     </row>
     <row r="103" spans="1:16" s="1" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7268,7 +7218,7 @@
     </row>
     <row r="104" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
@@ -7306,25 +7256,25 @@
     </row>
     <row r="106" spans="1:16" s="1" customFormat="1" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A106" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B106" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E106" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F106" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F106" s="16" t="s">
-        <v>86</v>
-      </c>
       <c r="G106" s="16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H106" s="27" t="s">
         <v>45</v>
@@ -7339,29 +7289,29 @@
       <c r="P106" s="15"/>
     </row>
     <row r="107" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="38">
+      <c r="A107" s="39">
         <v>1</v>
       </c>
       <c r="B107" s="28">
         <v>5</v>
       </c>
-      <c r="C107" s="60" t="s">
-        <v>605</v>
-      </c>
-      <c r="D107" s="60" t="s">
-        <v>674</v>
-      </c>
-      <c r="E107" s="60" t="s">
-        <v>612</v>
-      </c>
-      <c r="F107" s="60" t="s">
-        <v>677</v>
+      <c r="C107" s="29" t="s">
+        <v>604</v>
+      </c>
+      <c r="D107" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="E107" s="29" t="s">
+        <v>611</v>
+      </c>
+      <c r="F107" s="29" t="s">
+        <v>676</v>
       </c>
       <c r="G107" s="22" t="e">
         <f>20*LOG10((E107/F107)/(C107/D107))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H107" s="38" t="s">
+      <c r="H107" s="39" t="s">
         <v>46</v>
       </c>
       <c r="I107" s="15"/>
@@ -7374,27 +7324,27 @@
       <c r="P107" s="15"/>
     </row>
     <row r="108" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="39"/>
+      <c r="A108" s="40"/>
       <c r="B108" s="28">
         <v>10</v>
       </c>
-      <c r="C108" s="60" t="s">
-        <v>606</v>
-      </c>
-      <c r="D108" s="60" t="s">
-        <v>675</v>
-      </c>
-      <c r="E108" s="60" t="s">
-        <v>613</v>
-      </c>
-      <c r="F108" s="60" t="s">
-        <v>678</v>
+      <c r="C108" s="29" t="s">
+        <v>605</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="E108" s="29" t="s">
+        <v>612</v>
+      </c>
+      <c r="F108" s="29" t="s">
+        <v>677</v>
       </c>
       <c r="G108" s="22" t="e">
         <f t="shared" ref="G108:G115" si="8">20*LOG10((E108/F108)/(C108/D108))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H108" s="39"/>
+      <c r="H108" s="40"/>
       <c r="I108" s="15"/>
       <c r="J108" s="15"/>
       <c r="K108" s="15"/>
@@ -7405,27 +7355,27 @@
       <c r="P108" s="15"/>
     </row>
     <row r="109" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="40"/>
+      <c r="A109" s="41"/>
       <c r="B109" s="28">
         <v>20</v>
       </c>
-      <c r="C109" s="60" t="s">
-        <v>607</v>
-      </c>
-      <c r="D109" s="60" t="s">
-        <v>676</v>
-      </c>
-      <c r="E109" s="60" t="s">
-        <v>614</v>
-      </c>
-      <c r="F109" s="60" t="s">
-        <v>679</v>
+      <c r="C109" s="29" t="s">
+        <v>606</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>675</v>
+      </c>
+      <c r="E109" s="29" t="s">
+        <v>613</v>
+      </c>
+      <c r="F109" s="29" t="s">
+        <v>678</v>
       </c>
       <c r="G109" s="22" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H109" s="40"/>
+      <c r="H109" s="41"/>
       <c r="I109" s="15"/>
       <c r="J109" s="15"/>
       <c r="K109" s="15"/>
@@ -7437,16 +7387,16 @@
     </row>
     <row r="110" spans="1:16" s="1" customFormat="1" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A110" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B110" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C110" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="D110" s="16" t="s">
         <v>672</v>
-      </c>
-      <c r="D110" s="16" t="s">
-        <v>673</v>
       </c>
       <c r="E110" s="16" t="s">
         <v>43</v>
@@ -7455,7 +7405,7 @@
         <v>44</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H110" s="17" t="s">
         <v>45</v>
@@ -7470,29 +7420,29 @@
       <c r="P110" s="15"/>
     </row>
     <row r="111" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="38">
+      <c r="A111" s="39">
         <v>1</v>
       </c>
       <c r="B111" s="28">
         <v>50</v>
       </c>
-      <c r="C111" s="60" t="s">
-        <v>608</v>
-      </c>
-      <c r="D111" s="60" t="s">
-        <v>680</v>
-      </c>
-      <c r="E111" s="60" t="s">
-        <v>616</v>
-      </c>
-      <c r="F111" s="60" t="s">
-        <v>685</v>
+      <c r="C111" s="29" t="s">
+        <v>607</v>
+      </c>
+      <c r="D111" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="E111" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="F111" s="29" t="s">
+        <v>684</v>
       </c>
       <c r="G111" s="22" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H111" s="38" t="s">
+      <c r="H111" s="39" t="s">
         <v>46</v>
       </c>
       <c r="I111" s="15"/>
@@ -7505,27 +7455,27 @@
       <c r="P111" s="15"/>
     </row>
     <row r="112" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="39"/>
+      <c r="A112" s="40"/>
       <c r="B112" s="28">
         <v>100</v>
       </c>
-      <c r="C112" s="60" t="s">
-        <v>609</v>
-      </c>
-      <c r="D112" s="60" t="s">
-        <v>681</v>
-      </c>
-      <c r="E112" s="60" t="s">
-        <v>617</v>
-      </c>
-      <c r="F112" s="60" t="s">
-        <v>686</v>
+      <c r="C112" s="29" t="s">
+        <v>608</v>
+      </c>
+      <c r="D112" s="29" t="s">
+        <v>680</v>
+      </c>
+      <c r="E112" s="29" t="s">
+        <v>616</v>
+      </c>
+      <c r="F112" s="29" t="s">
+        <v>685</v>
       </c>
       <c r="G112" s="22" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H112" s="39"/>
+      <c r="H112" s="40"/>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
       <c r="K112" s="15"/>
@@ -7536,27 +7486,27 @@
       <c r="P112" s="15"/>
     </row>
     <row r="113" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="39"/>
+      <c r="A113" s="40"/>
       <c r="B113" s="28">
         <v>200</v>
       </c>
-      <c r="C113" s="60" t="s">
-        <v>610</v>
-      </c>
-      <c r="D113" s="60" t="s">
-        <v>682</v>
-      </c>
-      <c r="E113" s="60" t="s">
-        <v>618</v>
-      </c>
-      <c r="F113" s="60" t="s">
-        <v>687</v>
+      <c r="C113" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="D113" s="29" t="s">
+        <v>681</v>
+      </c>
+      <c r="E113" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="F113" s="29" t="s">
+        <v>686</v>
       </c>
       <c r="G113" s="22" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H113" s="39"/>
+      <c r="H113" s="40"/>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
       <c r="K113" s="15"/>
@@ -7567,27 +7517,27 @@
       <c r="P113" s="15"/>
     </row>
     <row r="114" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="39"/>
+      <c r="A114" s="40"/>
       <c r="B114" s="28">
         <v>500</v>
       </c>
-      <c r="C114" s="60" t="s">
-        <v>611</v>
-      </c>
-      <c r="D114" s="60" t="s">
-        <v>683</v>
-      </c>
-      <c r="E114" s="60" t="s">
-        <v>619</v>
-      </c>
-      <c r="F114" s="60" t="s">
-        <v>688</v>
+      <c r="C114" s="29" t="s">
+        <v>610</v>
+      </c>
+      <c r="D114" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="E114" s="29" t="s">
+        <v>618</v>
+      </c>
+      <c r="F114" s="29" t="s">
+        <v>687</v>
       </c>
       <c r="G114" s="22" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H114" s="39"/>
+      <c r="H114" s="40"/>
       <c r="I114" s="15"/>
       <c r="J114" s="15"/>
       <c r="K114" s="15"/>
@@ -7598,27 +7548,27 @@
       <c r="P114" s="15"/>
     </row>
     <row r="115" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="40"/>
+      <c r="A115" s="41"/>
       <c r="B115" s="28">
         <v>1000</v>
       </c>
-      <c r="C115" s="60" t="s">
-        <v>615</v>
-      </c>
-      <c r="D115" s="60" t="s">
-        <v>684</v>
-      </c>
-      <c r="E115" s="60" t="s">
-        <v>620</v>
-      </c>
-      <c r="F115" s="60" t="s">
-        <v>689</v>
+      <c r="C115" s="29" t="s">
+        <v>614</v>
+      </c>
+      <c r="D115" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="E115" s="29" t="s">
+        <v>619</v>
+      </c>
+      <c r="F115" s="29" t="s">
+        <v>688</v>
       </c>
       <c r="G115" s="22" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H115" s="39"/>
+      <c r="H115" s="40"/>
       <c r="I115" s="15"/>
       <c r="J115" s="15"/>
       <c r="K115" s="15"/>
@@ -7629,29 +7579,29 @@
       <c r="P115" s="15"/>
     </row>
     <row r="116" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="31">
+      <c r="A116" s="32">
         <v>2</v>
       </c>
       <c r="B116" s="28">
         <v>5</v>
       </c>
-      <c r="C116" s="60" t="s">
-        <v>622</v>
-      </c>
-      <c r="D116" s="60" t="s">
+      <c r="C116" s="29" t="s">
+        <v>621</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="E116" s="29" t="s">
+        <v>620</v>
+      </c>
+      <c r="F116" s="29" t="s">
         <v>690</v>
-      </c>
-      <c r="E116" s="60" t="s">
-        <v>621</v>
-      </c>
-      <c r="F116" s="60" t="s">
-        <v>691</v>
       </c>
       <c r="G116" s="22" t="e">
         <f t="shared" ref="G116:G139" si="9">20*LOG10((E116/F116)/(C116/D116))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H116" s="39"/>
+      <c r="H116" s="40"/>
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
       <c r="K116" s="15"/>
@@ -7662,27 +7612,27 @@
       <c r="P116" s="15"/>
     </row>
     <row r="117" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="31"/>
+      <c r="A117" s="32"/>
       <c r="B117" s="28">
         <v>10</v>
       </c>
-      <c r="C117" s="60" t="s">
-        <v>623</v>
-      </c>
-      <c r="D117" s="60" t="s">
-        <v>692</v>
-      </c>
-      <c r="E117" s="60" t="s">
-        <v>630</v>
-      </c>
-      <c r="F117" s="60" t="s">
-        <v>699</v>
+      <c r="C117" s="29" t="s">
+        <v>622</v>
+      </c>
+      <c r="D117" s="29" t="s">
+        <v>691</v>
+      </c>
+      <c r="E117" s="29" t="s">
+        <v>629</v>
+      </c>
+      <c r="F117" s="29" t="s">
+        <v>698</v>
       </c>
       <c r="G117" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H117" s="39"/>
+      <c r="H117" s="40"/>
       <c r="I117" s="15"/>
       <c r="J117" s="15"/>
       <c r="K117" s="15"/>
@@ -7693,27 +7643,27 @@
       <c r="P117" s="15"/>
     </row>
     <row r="118" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="31"/>
+      <c r="A118" s="32"/>
       <c r="B118" s="28">
         <v>20</v>
       </c>
-      <c r="C118" s="60" t="s">
-        <v>624</v>
-      </c>
-      <c r="D118" s="60" t="s">
-        <v>693</v>
-      </c>
-      <c r="E118" s="60" t="s">
-        <v>631</v>
-      </c>
-      <c r="F118" s="60" t="s">
-        <v>700</v>
+      <c r="C118" s="29" t="s">
+        <v>623</v>
+      </c>
+      <c r="D118" s="29" t="s">
+        <v>692</v>
+      </c>
+      <c r="E118" s="29" t="s">
+        <v>630</v>
+      </c>
+      <c r="F118" s="29" t="s">
+        <v>699</v>
       </c>
       <c r="G118" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H118" s="39"/>
+      <c r="H118" s="40"/>
       <c r="I118" s="15"/>
       <c r="J118" s="15"/>
       <c r="K118" s="15"/>
@@ -7724,27 +7674,27 @@
       <c r="P118" s="15"/>
     </row>
     <row r="119" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="31"/>
+      <c r="A119" s="32"/>
       <c r="B119" s="28">
         <v>50</v>
       </c>
-      <c r="C119" s="60" t="s">
-        <v>625</v>
-      </c>
-      <c r="D119" s="60" t="s">
-        <v>694</v>
-      </c>
-      <c r="E119" s="60" t="s">
-        <v>632</v>
-      </c>
-      <c r="F119" s="60" t="s">
-        <v>701</v>
+      <c r="C119" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="D119" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="E119" s="29" t="s">
+        <v>631</v>
+      </c>
+      <c r="F119" s="29" t="s">
+        <v>700</v>
       </c>
       <c r="G119" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H119" s="39"/>
+      <c r="H119" s="40"/>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
       <c r="K119" s="15"/>
@@ -7755,27 +7705,27 @@
       <c r="P119" s="15"/>
     </row>
     <row r="120" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="31"/>
+      <c r="A120" s="32"/>
       <c r="B120" s="28">
         <v>100</v>
       </c>
-      <c r="C120" s="60" t="s">
-        <v>626</v>
-      </c>
-      <c r="D120" s="60" t="s">
-        <v>695</v>
-      </c>
-      <c r="E120" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="F120" s="60" t="s">
-        <v>702</v>
+      <c r="C120" s="29" t="s">
+        <v>625</v>
+      </c>
+      <c r="D120" s="29" t="s">
+        <v>694</v>
+      </c>
+      <c r="E120" s="29" t="s">
+        <v>632</v>
+      </c>
+      <c r="F120" s="29" t="s">
+        <v>701</v>
       </c>
       <c r="G120" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H120" s="39"/>
+      <c r="H120" s="40"/>
       <c r="I120" s="15"/>
       <c r="J120" s="15"/>
       <c r="K120" s="15"/>
@@ -7786,27 +7736,27 @@
       <c r="P120" s="15"/>
     </row>
     <row r="121" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="31"/>
+      <c r="A121" s="32"/>
       <c r="B121" s="28">
         <v>200</v>
       </c>
-      <c r="C121" s="60" t="s">
-        <v>627</v>
-      </c>
-      <c r="D121" s="60" t="s">
-        <v>696</v>
-      </c>
-      <c r="E121" s="60" t="s">
-        <v>634</v>
-      </c>
-      <c r="F121" s="60" t="s">
-        <v>703</v>
+      <c r="C121" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="D121" s="29" t="s">
+        <v>695</v>
+      </c>
+      <c r="E121" s="29" t="s">
+        <v>633</v>
+      </c>
+      <c r="F121" s="29" t="s">
+        <v>702</v>
       </c>
       <c r="G121" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H121" s="39"/>
+      <c r="H121" s="40"/>
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
       <c r="K121" s="15"/>
@@ -7817,27 +7767,27 @@
       <c r="P121" s="15"/>
     </row>
     <row r="122" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="31"/>
+      <c r="A122" s="32"/>
       <c r="B122" s="28">
         <v>500</v>
       </c>
-      <c r="C122" s="60" t="s">
-        <v>628</v>
-      </c>
-      <c r="D122" s="60" t="s">
-        <v>697</v>
-      </c>
-      <c r="E122" s="60" t="s">
-        <v>635</v>
-      </c>
-      <c r="F122" s="60" t="s">
-        <v>704</v>
+      <c r="C122" s="29" t="s">
+        <v>627</v>
+      </c>
+      <c r="D122" s="29" t="s">
+        <v>696</v>
+      </c>
+      <c r="E122" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="F122" s="29" t="s">
+        <v>703</v>
       </c>
       <c r="G122" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H122" s="39"/>
+      <c r="H122" s="40"/>
       <c r="I122" s="15"/>
       <c r="J122" s="15"/>
       <c r="K122" s="15"/>
@@ -7848,27 +7798,27 @@
       <c r="P122" s="15"/>
     </row>
     <row r="123" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="31"/>
+      <c r="A123" s="32"/>
       <c r="B123" s="28">
         <v>1000</v>
       </c>
-      <c r="C123" s="60" t="s">
-        <v>629</v>
-      </c>
-      <c r="D123" s="60" t="s">
-        <v>698</v>
-      </c>
-      <c r="E123" s="60" t="s">
-        <v>636</v>
-      </c>
-      <c r="F123" s="60" t="s">
-        <v>705</v>
+      <c r="C123" s="29" t="s">
+        <v>628</v>
+      </c>
+      <c r="D123" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="E123" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="F123" s="29" t="s">
+        <v>704</v>
       </c>
       <c r="G123" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H123" s="39"/>
+      <c r="H123" s="40"/>
       <c r="I123" s="15"/>
       <c r="J123" s="15"/>
       <c r="K123" s="15"/>
@@ -7879,29 +7829,29 @@
       <c r="P123" s="15"/>
     </row>
     <row r="124" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="31">
+      <c r="A124" s="32">
         <v>3</v>
       </c>
       <c r="B124" s="28">
         <v>5</v>
       </c>
-      <c r="C124" s="60" t="s">
-        <v>637</v>
-      </c>
-      <c r="D124" s="60" t="s">
+      <c r="C124" s="29" t="s">
+        <v>636</v>
+      </c>
+      <c r="D124" s="29" t="s">
+        <v>705</v>
+      </c>
+      <c r="E124" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="F124" s="29" t="s">
         <v>706</v>
-      </c>
-      <c r="E124" s="60" t="s">
-        <v>645</v>
-      </c>
-      <c r="F124" s="60" t="s">
-        <v>707</v>
       </c>
       <c r="G124" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H124" s="39"/>
+      <c r="H124" s="40"/>
       <c r="I124" s="15"/>
       <c r="J124" s="15"/>
       <c r="K124" s="15"/>
@@ -7912,27 +7862,27 @@
       <c r="P124" s="15"/>
     </row>
     <row r="125" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="31"/>
+      <c r="A125" s="32"/>
       <c r="B125" s="28">
         <v>10</v>
       </c>
-      <c r="C125" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="D125" s="60" t="s">
-        <v>708</v>
-      </c>
-      <c r="E125" s="60" t="s">
-        <v>646</v>
-      </c>
-      <c r="F125" s="60" t="s">
-        <v>715</v>
+      <c r="C125" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="D125" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="E125" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="F125" s="29" t="s">
+        <v>714</v>
       </c>
       <c r="G125" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H125" s="39"/>
+      <c r="H125" s="40"/>
       <c r="I125" s="15"/>
       <c r="J125" s="15"/>
       <c r="K125" s="15"/>
@@ -7943,27 +7893,27 @@
       <c r="P125" s="15"/>
     </row>
     <row r="126" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="31"/>
+      <c r="A126" s="32"/>
       <c r="B126" s="28">
         <v>20</v>
       </c>
-      <c r="C126" s="60" t="s">
-        <v>639</v>
-      </c>
-      <c r="D126" s="60" t="s">
-        <v>709</v>
-      </c>
-      <c r="E126" s="60" t="s">
-        <v>647</v>
-      </c>
-      <c r="F126" s="60" t="s">
-        <v>716</v>
+      <c r="C126" s="29" t="s">
+        <v>638</v>
+      </c>
+      <c r="D126" s="29" t="s">
+        <v>708</v>
+      </c>
+      <c r="E126" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="F126" s="29" t="s">
+        <v>715</v>
       </c>
       <c r="G126" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H126" s="39"/>
+      <c r="H126" s="40"/>
       <c r="I126" s="15"/>
       <c r="J126" s="15"/>
       <c r="K126" s="15"/>
@@ -7974,27 +7924,27 @@
       <c r="P126" s="15"/>
     </row>
     <row r="127" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="31"/>
+      <c r="A127" s="32"/>
       <c r="B127" s="28">
         <v>50</v>
       </c>
-      <c r="C127" s="60" t="s">
-        <v>640</v>
-      </c>
-      <c r="D127" s="60" t="s">
-        <v>710</v>
-      </c>
-      <c r="E127" s="60" t="s">
-        <v>648</v>
-      </c>
-      <c r="F127" s="60" t="s">
-        <v>717</v>
+      <c r="C127" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="D127" s="29" t="s">
+        <v>709</v>
+      </c>
+      <c r="E127" s="29" t="s">
+        <v>647</v>
+      </c>
+      <c r="F127" s="29" t="s">
+        <v>716</v>
       </c>
       <c r="G127" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H127" s="39"/>
+      <c r="H127" s="40"/>
       <c r="I127" s="15"/>
       <c r="J127" s="15"/>
       <c r="K127" s="15"/>
@@ -8005,27 +7955,27 @@
       <c r="P127" s="15"/>
     </row>
     <row r="128" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="31"/>
+      <c r="A128" s="32"/>
       <c r="B128" s="28">
         <v>100</v>
       </c>
-      <c r="C128" s="60" t="s">
-        <v>641</v>
-      </c>
-      <c r="D128" s="60" t="s">
-        <v>711</v>
-      </c>
-      <c r="E128" s="60" t="s">
-        <v>649</v>
-      </c>
-      <c r="F128" s="60" t="s">
-        <v>718</v>
+      <c r="C128" s="29" t="s">
+        <v>640</v>
+      </c>
+      <c r="D128" s="29" t="s">
+        <v>710</v>
+      </c>
+      <c r="E128" s="29" t="s">
+        <v>648</v>
+      </c>
+      <c r="F128" s="29" t="s">
+        <v>717</v>
       </c>
       <c r="G128" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H128" s="39"/>
+      <c r="H128" s="40"/>
       <c r="I128" s="15"/>
       <c r="J128" s="15"/>
       <c r="K128" s="15"/>
@@ -8036,27 +7986,27 @@
       <c r="P128" s="15"/>
     </row>
     <row r="129" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="31"/>
+      <c r="A129" s="32"/>
       <c r="B129" s="28">
         <v>200</v>
       </c>
-      <c r="C129" s="60" t="s">
-        <v>642</v>
-      </c>
-      <c r="D129" s="60" t="s">
-        <v>712</v>
-      </c>
-      <c r="E129" s="60" t="s">
-        <v>650</v>
-      </c>
-      <c r="F129" s="60" t="s">
-        <v>719</v>
+      <c r="C129" s="29" t="s">
+        <v>641</v>
+      </c>
+      <c r="D129" s="29" t="s">
+        <v>711</v>
+      </c>
+      <c r="E129" s="29" t="s">
+        <v>649</v>
+      </c>
+      <c r="F129" s="29" t="s">
+        <v>718</v>
       </c>
       <c r="G129" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H129" s="39"/>
+      <c r="H129" s="40"/>
       <c r="I129" s="15"/>
       <c r="J129" s="15"/>
       <c r="K129" s="15"/>
@@ -8067,27 +8017,27 @@
       <c r="P129" s="15"/>
     </row>
     <row r="130" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="31"/>
+      <c r="A130" s="32"/>
       <c r="B130" s="28">
         <v>500</v>
       </c>
-      <c r="C130" s="60" t="s">
-        <v>643</v>
-      </c>
-      <c r="D130" s="60" t="s">
-        <v>713</v>
-      </c>
-      <c r="E130" s="60" t="s">
-        <v>651</v>
-      </c>
-      <c r="F130" s="60" t="s">
-        <v>720</v>
+      <c r="C130" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="D130" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="E130" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="F130" s="29" t="s">
+        <v>719</v>
       </c>
       <c r="G130" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H130" s="39"/>
+      <c r="H130" s="40"/>
       <c r="I130" s="15"/>
       <c r="J130" s="15"/>
       <c r="K130" s="15"/>
@@ -8098,27 +8048,27 @@
       <c r="P130" s="15"/>
     </row>
     <row r="131" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="31"/>
+      <c r="A131" s="32"/>
       <c r="B131" s="28">
         <v>1000</v>
       </c>
-      <c r="C131" s="60" t="s">
-        <v>644</v>
-      </c>
-      <c r="D131" s="60" t="s">
-        <v>714</v>
-      </c>
-      <c r="E131" s="60" t="s">
-        <v>652</v>
-      </c>
-      <c r="F131" s="60" t="s">
-        <v>721</v>
+      <c r="C131" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="D131" s="29" t="s">
+        <v>713</v>
+      </c>
+      <c r="E131" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F131" s="29" t="s">
+        <v>720</v>
       </c>
       <c r="G131" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H131" s="39"/>
+      <c r="H131" s="40"/>
       <c r="I131" s="15"/>
       <c r="J131" s="15"/>
       <c r="K131" s="15"/>
@@ -8129,29 +8079,29 @@
       <c r="P131" s="15"/>
     </row>
     <row r="132" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="31">
+      <c r="A132" s="32">
         <v>4</v>
       </c>
       <c r="B132" s="28">
         <v>5</v>
       </c>
-      <c r="C132" s="60" t="s">
-        <v>653</v>
-      </c>
-      <c r="D132" s="60" t="s">
+      <c r="C132" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="D132" s="29" t="s">
+        <v>721</v>
+      </c>
+      <c r="E132" s="29" t="s">
+        <v>660</v>
+      </c>
+      <c r="F132" s="29" t="s">
         <v>722</v>
-      </c>
-      <c r="E132" s="60" t="s">
-        <v>661</v>
-      </c>
-      <c r="F132" s="60" t="s">
-        <v>723</v>
       </c>
       <c r="G132" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H132" s="39"/>
+      <c r="H132" s="40"/>
       <c r="I132" s="15"/>
       <c r="J132" s="15"/>
       <c r="K132" s="15"/>
@@ -8162,27 +8112,27 @@
       <c r="P132" s="15"/>
     </row>
     <row r="133" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="31"/>
+      <c r="A133" s="32"/>
       <c r="B133" s="28">
         <v>10</v>
       </c>
-      <c r="C133" s="60" t="s">
-        <v>654</v>
-      </c>
-      <c r="D133" s="60" t="s">
-        <v>724</v>
-      </c>
-      <c r="E133" s="60" t="s">
-        <v>662</v>
-      </c>
-      <c r="F133" s="60" t="s">
-        <v>731</v>
+      <c r="C133" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="D133" s="29" t="s">
+        <v>723</v>
+      </c>
+      <c r="E133" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="F133" s="29" t="s">
+        <v>730</v>
       </c>
       <c r="G133" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H133" s="39"/>
+      <c r="H133" s="40"/>
       <c r="I133" s="15"/>
       <c r="J133" s="15"/>
       <c r="K133" s="15"/>
@@ -8193,27 +8143,27 @@
       <c r="P133" s="15"/>
     </row>
     <row r="134" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="31"/>
+      <c r="A134" s="32"/>
       <c r="B134" s="28">
         <v>20</v>
       </c>
-      <c r="C134" s="60" t="s">
-        <v>655</v>
-      </c>
-      <c r="D134" s="60" t="s">
-        <v>725</v>
-      </c>
-      <c r="E134" s="60" t="s">
-        <v>663</v>
-      </c>
-      <c r="F134" s="60" t="s">
-        <v>732</v>
+      <c r="C134" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="D134" s="29" t="s">
+        <v>724</v>
+      </c>
+      <c r="E134" s="29" t="s">
+        <v>662</v>
+      </c>
+      <c r="F134" s="29" t="s">
+        <v>731</v>
       </c>
       <c r="G134" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H134" s="39"/>
+      <c r="H134" s="40"/>
       <c r="I134" s="15"/>
       <c r="J134" s="15"/>
       <c r="K134" s="15"/>
@@ -8224,27 +8174,27 @@
       <c r="P134" s="15"/>
     </row>
     <row r="135" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="31"/>
+      <c r="A135" s="32"/>
       <c r="B135" s="28">
         <v>50</v>
       </c>
-      <c r="C135" s="60" t="s">
-        <v>656</v>
-      </c>
-      <c r="D135" s="60" t="s">
-        <v>726</v>
-      </c>
-      <c r="E135" s="60" t="s">
-        <v>664</v>
-      </c>
-      <c r="F135" s="60" t="s">
-        <v>733</v>
+      <c r="C135" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="D135" s="29" t="s">
+        <v>725</v>
+      </c>
+      <c r="E135" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="F135" s="29" t="s">
+        <v>732</v>
       </c>
       <c r="G135" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H135" s="39"/>
+      <c r="H135" s="40"/>
       <c r="I135" s="15"/>
       <c r="J135" s="15"/>
       <c r="K135" s="15"/>
@@ -8255,27 +8205,27 @@
       <c r="P135" s="15"/>
     </row>
     <row r="136" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="31"/>
+      <c r="A136" s="32"/>
       <c r="B136" s="28">
         <v>100</v>
       </c>
-      <c r="C136" s="60" t="s">
-        <v>657</v>
-      </c>
-      <c r="D136" s="60" t="s">
-        <v>727</v>
-      </c>
-      <c r="E136" s="60" t="s">
-        <v>665</v>
-      </c>
-      <c r="F136" s="60" t="s">
-        <v>734</v>
+      <c r="C136" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="D136" s="29" t="s">
+        <v>726</v>
+      </c>
+      <c r="E136" s="29" t="s">
+        <v>664</v>
+      </c>
+      <c r="F136" s="29" t="s">
+        <v>733</v>
       </c>
       <c r="G136" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H136" s="39"/>
+      <c r="H136" s="40"/>
       <c r="I136" s="15"/>
       <c r="J136" s="15"/>
       <c r="K136" s="15"/>
@@ -8286,27 +8236,27 @@
       <c r="P136" s="15"/>
     </row>
     <row r="137" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="31"/>
+      <c r="A137" s="32"/>
       <c r="B137" s="28">
         <v>200</v>
       </c>
-      <c r="C137" s="60" t="s">
-        <v>658</v>
-      </c>
-      <c r="D137" s="60" t="s">
-        <v>728</v>
-      </c>
-      <c r="E137" s="60" t="s">
-        <v>666</v>
-      </c>
-      <c r="F137" s="60" t="s">
-        <v>735</v>
+      <c r="C137" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="D137" s="29" t="s">
+        <v>727</v>
+      </c>
+      <c r="E137" s="29" t="s">
+        <v>665</v>
+      </c>
+      <c r="F137" s="29" t="s">
+        <v>734</v>
       </c>
       <c r="G137" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H137" s="39"/>
+      <c r="H137" s="40"/>
       <c r="I137" s="15"/>
       <c r="J137" s="15"/>
       <c r="K137" s="15"/>
@@ -8317,27 +8267,27 @@
       <c r="P137" s="15"/>
     </row>
     <row r="138" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="31"/>
+      <c r="A138" s="32"/>
       <c r="B138" s="28">
         <v>500</v>
       </c>
-      <c r="C138" s="60" t="s">
-        <v>659</v>
-      </c>
-      <c r="D138" s="60" t="s">
-        <v>729</v>
-      </c>
-      <c r="E138" s="60" t="s">
-        <v>667</v>
-      </c>
-      <c r="F138" s="60" t="s">
-        <v>736</v>
+      <c r="C138" s="29" t="s">
+        <v>658</v>
+      </c>
+      <c r="D138" s="29" t="s">
+        <v>728</v>
+      </c>
+      <c r="E138" s="29" t="s">
+        <v>666</v>
+      </c>
+      <c r="F138" s="29" t="s">
+        <v>735</v>
       </c>
       <c r="G138" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H138" s="39"/>
+      <c r="H138" s="40"/>
       <c r="I138" s="15"/>
       <c r="J138" s="15"/>
       <c r="K138" s="15"/>
@@ -8348,27 +8298,27 @@
       <c r="P138" s="15"/>
     </row>
     <row r="139" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="31"/>
+      <c r="A139" s="32"/>
       <c r="B139" s="28">
         <v>1000</v>
       </c>
-      <c r="C139" s="60" t="s">
-        <v>660</v>
-      </c>
-      <c r="D139" s="60" t="s">
-        <v>730</v>
-      </c>
-      <c r="E139" s="60" t="s">
-        <v>668</v>
-      </c>
-      <c r="F139" s="60" t="s">
-        <v>737</v>
+      <c r="C139" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="D139" s="29" t="s">
+        <v>729</v>
+      </c>
+      <c r="E139" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="F139" s="29" t="s">
+        <v>736</v>
       </c>
       <c r="G139" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H139" s="40"/>
+      <c r="H139" s="41"/>
       <c r="I139" s="15"/>
       <c r="J139" s="15"/>
       <c r="K139" s="15"/>
@@ -8397,21 +8347,21 @@
       <c r="P140" s="15"/>
     </row>
     <row r="141" spans="1:16" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B141" s="47"/>
-      <c r="C141" s="47"/>
-      <c r="D141" s="47"/>
-      <c r="E141" s="47"/>
-      <c r="F141" s="47"/>
-      <c r="G141" s="47"/>
-      <c r="H141" s="47"/>
-      <c r="I141" s="47"/>
-      <c r="J141" s="47"/>
-      <c r="K141" s="47"/>
-      <c r="L141" s="47"/>
-      <c r="M141" s="47"/>
+      <c r="A141" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B141" s="48"/>
+      <c r="C141" s="48"/>
+      <c r="D141" s="48"/>
+      <c r="E141" s="48"/>
+      <c r="F141" s="48"/>
+      <c r="G141" s="48"/>
+      <c r="H141" s="48"/>
+      <c r="I141" s="48"/>
+      <c r="J141" s="48"/>
+      <c r="K141" s="48"/>
+      <c r="L141" s="48"/>
+      <c r="M141" s="48"/>
       <c r="N141" s="15"/>
       <c r="O141" s="15"/>
       <c r="P141" s="15"/>
@@ -8435,18 +8385,18 @@
       <c r="P142" s="15"/>
     </row>
     <row r="143" spans="1:16" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="48" t="s">
+      <c r="A143" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B143" s="48"/>
-      <c r="C143" s="31" t="s">
+      <c r="B143" s="49"/>
+      <c r="C143" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D143" s="31"/>
-      <c r="E143" s="34" t="s">
+      <c r="D143" s="32"/>
+      <c r="E143" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F143" s="34"/>
+      <c r="F143" s="35"/>
       <c r="G143" s="15"/>
       <c r="H143" s="15"/>
       <c r="I143" s="15"/>
@@ -8459,18 +8409,18 @@
       <c r="P143" s="15"/>
     </row>
     <row r="144" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="36">
+      <c r="A144" s="37">
         <v>21.8</v>
       </c>
-      <c r="B144" s="36"/>
-      <c r="C144" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D144" s="36"/>
-      <c r="E144" s="34" t="s">
+      <c r="B144" s="37"/>
+      <c r="C144" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D144" s="37"/>
+      <c r="E144" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F144" s="34"/>
+      <c r="F144" s="35"/>
       <c r="G144" s="15"/>
       <c r="H144" s="15"/>
       <c r="I144" s="15"/>
@@ -8502,7 +8452,7 @@
     </row>
     <row r="146" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B146" s="15"/>
       <c r="C146" s="15"/>
@@ -8540,7 +8490,7 @@
     </row>
     <row r="148" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B148" s="15"/>
       <c r="C148" s="15"/>
@@ -8577,1346 +8527,1346 @@
       <c r="P149" s="15"/>
     </row>
     <row r="150" spans="1:16" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="34" t="s">
+      <c r="A150" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B150" s="34" t="s">
+      <c r="B150" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C150" s="34"/>
-      <c r="D150" s="34" t="s">
+      <c r="C150" s="35"/>
+      <c r="D150" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E150" s="34" t="s">
+      <c r="E150" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F150" s="35"/>
+      <c r="G150" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="F150" s="34"/>
-      <c r="G150" s="34" t="s">
+      <c r="H150" s="35"/>
+      <c r="I150" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="J150" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="H150" s="34"/>
-      <c r="I150" s="34" t="s">
+      <c r="K150" s="35"/>
+      <c r="L150" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="M150" s="35"/>
+      <c r="N150" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J150" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="K150" s="34"/>
-      <c r="L150" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="M150" s="34"/>
-      <c r="N150" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="O150" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="P150" s="37" t="s">
+      <c r="O150" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="P150" s="38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="151" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="34"/>
-      <c r="B151" s="34"/>
-      <c r="C151" s="34"/>
-      <c r="D151" s="34"/>
-      <c r="E151" s="34"/>
-      <c r="F151" s="34"/>
-      <c r="G151" s="34"/>
-      <c r="H151" s="34"/>
-      <c r="I151" s="34"/>
-      <c r="J151" s="34"/>
-      <c r="K151" s="34"/>
-      <c r="L151" s="34"/>
-      <c r="M151" s="34"/>
-      <c r="N151" s="34"/>
-      <c r="O151" s="34"/>
-      <c r="P151" s="34"/>
+      <c r="A151" s="35"/>
+      <c r="B151" s="35"/>
+      <c r="C151" s="35"/>
+      <c r="D151" s="35"/>
+      <c r="E151" s="35"/>
+      <c r="F151" s="35"/>
+      <c r="G151" s="35"/>
+      <c r="H151" s="35"/>
+      <c r="I151" s="35"/>
+      <c r="J151" s="35"/>
+      <c r="K151" s="35"/>
+      <c r="L151" s="35"/>
+      <c r="M151" s="35"/>
+      <c r="N151" s="35"/>
+      <c r="O151" s="35"/>
+      <c r="P151" s="35"/>
     </row>
     <row r="152" spans="1:16" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="34"/>
-      <c r="B152" s="34"/>
-      <c r="C152" s="34"/>
-      <c r="D152" s="34"/>
-      <c r="E152" s="34"/>
-      <c r="F152" s="34"/>
-      <c r="G152" s="34"/>
-      <c r="H152" s="34"/>
-      <c r="I152" s="34"/>
-      <c r="J152" s="34"/>
-      <c r="K152" s="34"/>
-      <c r="L152" s="34"/>
-      <c r="M152" s="34"/>
-      <c r="N152" s="34"/>
-      <c r="O152" s="34"/>
-      <c r="P152" s="34"/>
+      <c r="A152" s="35"/>
+      <c r="B152" s="35"/>
+      <c r="C152" s="35"/>
+      <c r="D152" s="35"/>
+      <c r="E152" s="35"/>
+      <c r="F152" s="35"/>
+      <c r="G152" s="35"/>
+      <c r="H152" s="35"/>
+      <c r="I152" s="35"/>
+      <c r="J152" s="35"/>
+      <c r="K152" s="35"/>
+      <c r="L152" s="35"/>
+      <c r="M152" s="35"/>
+      <c r="N152" s="35"/>
+      <c r="O152" s="35"/>
+      <c r="P152" s="35"/>
     </row>
     <row r="153" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="31">
+      <c r="A153" s="32">
         <v>1</v>
       </c>
-      <c r="B153" s="31">
+      <c r="B153" s="32">
         <v>5</v>
       </c>
-      <c r="C153" s="31"/>
+      <c r="C153" s="32"/>
       <c r="D153" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E153" s="36" t="s">
+      <c r="E153" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="F153" s="37"/>
+      <c r="G153" s="37" t="s">
         <v>421</v>
       </c>
-      <c r="F153" s="36"/>
-      <c r="G153" s="36" t="s">
+      <c r="H153" s="37"/>
+      <c r="I153" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="H153" s="36"/>
-      <c r="I153" s="26" t="s">
+      <c r="J153" s="37" t="s">
         <v>423</v>
       </c>
-      <c r="J153" s="36" t="s">
+      <c r="K153" s="37"/>
+      <c r="L153" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="K153" s="36"/>
-      <c r="L153" s="36" t="s">
+      <c r="M153" s="37"/>
+      <c r="N153" s="26" t="s">
         <v>425</v>
-      </c>
-      <c r="M153" s="36"/>
-      <c r="N153" s="26" t="s">
-        <v>426</v>
       </c>
       <c r="O153" s="22" t="e">
         <f>IF(ABS(((J153-N153)/(E153-I153)-1)*100)&gt;ABS(((L153-N153)/(G153-I153)-1)*100),((J153-N153)/(E153-I153)-1)*100,((L153-N153)/(G153-I153)-1)*100)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P153" s="31" t="s">
+      <c r="P153" s="32" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="154" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="31"/>
-      <c r="B154" s="31">
+      <c r="A154" s="32"/>
+      <c r="B154" s="32">
         <v>10</v>
       </c>
-      <c r="C154" s="31"/>
+      <c r="C154" s="32"/>
       <c r="D154" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E154" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="F154" s="36"/>
-      <c r="G154" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="H154" s="36"/>
+      <c r="E154" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="F154" s="37"/>
+      <c r="G154" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="H154" s="37"/>
       <c r="I154" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="J154" s="36" t="s">
-        <v>448</v>
-      </c>
-      <c r="K154" s="36"/>
-      <c r="L154" s="36" t="s">
-        <v>455</v>
-      </c>
-      <c r="M154" s="36"/>
+        <v>440</v>
+      </c>
+      <c r="J154" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="K154" s="37"/>
+      <c r="L154" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="M154" s="37"/>
       <c r="N154" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O154" s="22" t="e">
         <f t="shared" ref="O154:O183" si="10">IF(ABS(((J154-N154)/(E154-I154)-1)*100)&gt;ABS(((L154-N154)/(G154-I154)-1)*100),((J154-N154)/(E154-I154)-1)*100,((L154-N154)/(G154-I154)-1)*100)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P154" s="31"/>
+      <c r="P154" s="32"/>
     </row>
     <row r="155" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="31"/>
-      <c r="B155" s="31">
+      <c r="A155" s="32"/>
+      <c r="B155" s="32">
         <v>20</v>
       </c>
-      <c r="C155" s="31"/>
+      <c r="C155" s="32"/>
       <c r="D155" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E155" s="36" t="s">
-        <v>428</v>
-      </c>
-      <c r="F155" s="36"/>
-      <c r="G155" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="H155" s="36"/>
+      <c r="E155" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="F155" s="37"/>
+      <c r="G155" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="H155" s="37"/>
       <c r="I155" s="26" t="s">
-        <v>442</v>
-      </c>
-      <c r="J155" s="36" t="s">
-        <v>449</v>
-      </c>
-      <c r="K155" s="36"/>
-      <c r="L155" s="36" t="s">
-        <v>456</v>
-      </c>
-      <c r="M155" s="36"/>
+        <v>441</v>
+      </c>
+      <c r="J155" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="K155" s="37"/>
+      <c r="L155" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="M155" s="37"/>
       <c r="N155" s="26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O155" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P155" s="31"/>
+      <c r="P155" s="32"/>
     </row>
     <row r="156" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="31"/>
-      <c r="B156" s="31">
+      <c r="A156" s="32"/>
+      <c r="B156" s="32">
         <v>50</v>
       </c>
-      <c r="C156" s="31"/>
+      <c r="C156" s="32"/>
       <c r="D156" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E156" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="F156" s="36"/>
-      <c r="G156" s="36" t="s">
-        <v>436</v>
-      </c>
-      <c r="H156" s="36"/>
+      <c r="E156" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="F156" s="37"/>
+      <c r="G156" s="37" t="s">
+        <v>435</v>
+      </c>
+      <c r="H156" s="37"/>
       <c r="I156" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="J156" s="36" t="s">
-        <v>450</v>
-      </c>
-      <c r="K156" s="36"/>
-      <c r="L156" s="36" t="s">
-        <v>457</v>
-      </c>
-      <c r="M156" s="36"/>
+        <v>442</v>
+      </c>
+      <c r="J156" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="K156" s="37"/>
+      <c r="L156" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="M156" s="37"/>
       <c r="N156" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O156" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P156" s="31"/>
+      <c r="P156" s="32"/>
     </row>
     <row r="157" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="31"/>
-      <c r="B157" s="31">
+      <c r="A157" s="32"/>
+      <c r="B157" s="32">
         <v>100</v>
       </c>
-      <c r="C157" s="31"/>
+      <c r="C157" s="32"/>
       <c r="D157" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E157" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="F157" s="36"/>
-      <c r="G157" s="36" t="s">
-        <v>437</v>
-      </c>
-      <c r="H157" s="36"/>
+      <c r="E157" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="F157" s="37"/>
+      <c r="G157" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="H157" s="37"/>
       <c r="I157" s="26" t="s">
-        <v>444</v>
-      </c>
-      <c r="J157" s="36" t="s">
-        <v>451</v>
-      </c>
-      <c r="K157" s="36"/>
-      <c r="L157" s="36" t="s">
-        <v>458</v>
-      </c>
-      <c r="M157" s="36"/>
+        <v>443</v>
+      </c>
+      <c r="J157" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="K157" s="37"/>
+      <c r="L157" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="M157" s="37"/>
       <c r="N157" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O157" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P157" s="31"/>
+      <c r="P157" s="32"/>
     </row>
     <row r="158" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="31"/>
-      <c r="B158" s="31">
+      <c r="A158" s="32"/>
+      <c r="B158" s="32">
         <v>200</v>
       </c>
-      <c r="C158" s="31"/>
+      <c r="C158" s="32"/>
       <c r="D158" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E158" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="F158" s="36"/>
-      <c r="G158" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="H158" s="36"/>
+      <c r="E158" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="F158" s="37"/>
+      <c r="G158" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="H158" s="37"/>
       <c r="I158" s="26" t="s">
-        <v>445</v>
-      </c>
-      <c r="J158" s="36" t="s">
-        <v>452</v>
-      </c>
-      <c r="K158" s="36"/>
-      <c r="L158" s="36" t="s">
-        <v>459</v>
-      </c>
-      <c r="M158" s="36"/>
+        <v>444</v>
+      </c>
+      <c r="J158" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="K158" s="37"/>
+      <c r="L158" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="M158" s="37"/>
       <c r="N158" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O158" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P158" s="31"/>
+      <c r="P158" s="32"/>
     </row>
     <row r="159" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="31"/>
-      <c r="B159" s="31">
+      <c r="A159" s="32"/>
+      <c r="B159" s="32">
         <v>500</v>
       </c>
-      <c r="C159" s="31"/>
+      <c r="C159" s="32"/>
       <c r="D159" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E159" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="F159" s="36"/>
-      <c r="G159" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="H159" s="36"/>
+      <c r="E159" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="F159" s="37"/>
+      <c r="G159" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="H159" s="37"/>
       <c r="I159" s="26" t="s">
-        <v>446</v>
-      </c>
-      <c r="J159" s="36" t="s">
-        <v>453</v>
-      </c>
-      <c r="K159" s="36"/>
-      <c r="L159" s="36" t="s">
-        <v>460</v>
-      </c>
-      <c r="M159" s="36"/>
+        <v>445</v>
+      </c>
+      <c r="J159" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="K159" s="37"/>
+      <c r="L159" s="37" t="s">
+        <v>459</v>
+      </c>
+      <c r="M159" s="37"/>
       <c r="N159" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O159" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P159" s="31"/>
+      <c r="P159" s="32"/>
     </row>
     <row r="160" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="31"/>
-      <c r="B160" s="31">
+      <c r="A160" s="32"/>
+      <c r="B160" s="32">
         <v>1000</v>
       </c>
-      <c r="C160" s="31"/>
+      <c r="C160" s="32"/>
       <c r="D160" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E160" s="36" t="s">
-        <v>433</v>
-      </c>
-      <c r="F160" s="36"/>
-      <c r="G160" s="36" t="s">
-        <v>440</v>
-      </c>
-      <c r="H160" s="36"/>
+      <c r="E160" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="F160" s="37"/>
+      <c r="G160" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="H160" s="37"/>
       <c r="I160" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="J160" s="36" t="s">
-        <v>454</v>
-      </c>
-      <c r="K160" s="36"/>
-      <c r="L160" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="M160" s="36"/>
+        <v>446</v>
+      </c>
+      <c r="J160" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="K160" s="37"/>
+      <c r="L160" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="M160" s="37"/>
       <c r="N160" s="26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O160" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P160" s="31"/>
+      <c r="P160" s="32"/>
     </row>
     <row r="161" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="31">
+      <c r="A161" s="32">
         <v>2</v>
       </c>
-      <c r="B161" s="31">
+      <c r="B161" s="32">
         <v>5</v>
       </c>
-      <c r="C161" s="31"/>
+      <c r="C161" s="32"/>
       <c r="D161" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E161" s="36" t="s">
+      <c r="E161" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="F161" s="37"/>
+      <c r="G161" s="37" t="s">
         <v>469</v>
       </c>
-      <c r="F161" s="36"/>
-      <c r="G161" s="36" t="s">
+      <c r="H161" s="37"/>
+      <c r="I161" s="26" t="s">
         <v>470</v>
       </c>
-      <c r="H161" s="36"/>
-      <c r="I161" s="26" t="s">
+      <c r="J161" s="37" t="s">
         <v>471</v>
       </c>
-      <c r="J161" s="36" t="s">
+      <c r="K161" s="37"/>
+      <c r="L161" s="37" t="s">
         <v>472</v>
       </c>
-      <c r="K161" s="36"/>
-      <c r="L161" s="36" t="s">
-        <v>473</v>
-      </c>
-      <c r="M161" s="36"/>
+      <c r="M161" s="37"/>
       <c r="N161" s="26" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O161" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P161" s="31"/>
+      <c r="P161" s="32"/>
     </row>
     <row r="162" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="31"/>
-      <c r="B162" s="31">
+      <c r="A162" s="32"/>
+      <c r="B162" s="32">
         <v>10</v>
       </c>
-      <c r="C162" s="31"/>
+      <c r="C162" s="32"/>
       <c r="D162" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E162" s="36" t="s">
-        <v>474</v>
-      </c>
-      <c r="F162" s="36"/>
-      <c r="G162" s="36" t="s">
-        <v>481</v>
-      </c>
-      <c r="H162" s="36"/>
+      <c r="E162" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="F162" s="37"/>
+      <c r="G162" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="H162" s="37"/>
       <c r="I162" s="26" t="s">
-        <v>488</v>
-      </c>
-      <c r="J162" s="36" t="s">
-        <v>495</v>
-      </c>
-      <c r="K162" s="36"/>
-      <c r="L162" s="36" t="s">
-        <v>502</v>
-      </c>
-      <c r="M162" s="36"/>
+        <v>487</v>
+      </c>
+      <c r="J162" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="K162" s="37"/>
+      <c r="L162" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="M162" s="37"/>
       <c r="N162" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O162" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P162" s="31"/>
+      <c r="P162" s="32"/>
     </row>
     <row r="163" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="31"/>
-      <c r="B163" s="31">
+      <c r="A163" s="32"/>
+      <c r="B163" s="32">
         <v>20</v>
       </c>
-      <c r="C163" s="31"/>
+      <c r="C163" s="32"/>
       <c r="D163" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E163" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="F163" s="36"/>
-      <c r="G163" s="36" t="s">
-        <v>482</v>
-      </c>
-      <c r="H163" s="36"/>
+      <c r="E163" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="F163" s="37"/>
+      <c r="G163" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="H163" s="37"/>
       <c r="I163" s="26" t="s">
-        <v>489</v>
-      </c>
-      <c r="J163" s="36" t="s">
-        <v>496</v>
-      </c>
-      <c r="K163" s="36"/>
-      <c r="L163" s="36" t="s">
-        <v>503</v>
-      </c>
-      <c r="M163" s="36"/>
+        <v>488</v>
+      </c>
+      <c r="J163" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="K163" s="37"/>
+      <c r="L163" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="M163" s="37"/>
       <c r="N163" s="26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O163" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P163" s="31"/>
+      <c r="P163" s="32"/>
     </row>
     <row r="164" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="31"/>
-      <c r="B164" s="31">
+      <c r="A164" s="32"/>
+      <c r="B164" s="32">
         <v>50</v>
       </c>
-      <c r="C164" s="31"/>
+      <c r="C164" s="32"/>
       <c r="D164" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E164" s="36" t="s">
-        <v>476</v>
-      </c>
-      <c r="F164" s="36"/>
-      <c r="G164" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="H164" s="36"/>
+      <c r="E164" s="37" t="s">
+        <v>475</v>
+      </c>
+      <c r="F164" s="37"/>
+      <c r="G164" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="H164" s="37"/>
       <c r="I164" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="J164" s="36" t="s">
-        <v>497</v>
-      </c>
-      <c r="K164" s="36"/>
-      <c r="L164" s="36" t="s">
-        <v>504</v>
-      </c>
-      <c r="M164" s="36"/>
+        <v>489</v>
+      </c>
+      <c r="J164" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="K164" s="37"/>
+      <c r="L164" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="M164" s="37"/>
       <c r="N164" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O164" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P164" s="31"/>
+      <c r="P164" s="32"/>
     </row>
     <row r="165" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="31"/>
-      <c r="B165" s="31">
+      <c r="A165" s="32"/>
+      <c r="B165" s="32">
         <v>100</v>
       </c>
-      <c r="C165" s="31"/>
+      <c r="C165" s="32"/>
       <c r="D165" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E165" s="36" t="s">
-        <v>477</v>
-      </c>
-      <c r="F165" s="36"/>
-      <c r="G165" s="36" t="s">
-        <v>484</v>
-      </c>
-      <c r="H165" s="36"/>
+      <c r="E165" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="F165" s="37"/>
+      <c r="G165" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="H165" s="37"/>
       <c r="I165" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="J165" s="36" t="s">
-        <v>498</v>
-      </c>
-      <c r="K165" s="36"/>
-      <c r="L165" s="36" t="s">
-        <v>505</v>
-      </c>
-      <c r="M165" s="36"/>
+        <v>490</v>
+      </c>
+      <c r="J165" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="K165" s="37"/>
+      <c r="L165" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="M165" s="37"/>
       <c r="N165" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O165" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P165" s="31"/>
+      <c r="P165" s="32"/>
     </row>
     <row r="166" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="31"/>
-      <c r="B166" s="31">
+      <c r="A166" s="32"/>
+      <c r="B166" s="32">
         <v>200</v>
       </c>
-      <c r="C166" s="31"/>
+      <c r="C166" s="32"/>
       <c r="D166" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E166" s="36" t="s">
-        <v>478</v>
-      </c>
-      <c r="F166" s="36"/>
-      <c r="G166" s="36" t="s">
-        <v>485</v>
-      </c>
-      <c r="H166" s="36"/>
+      <c r="E166" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="F166" s="37"/>
+      <c r="G166" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="H166" s="37"/>
       <c r="I166" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="J166" s="36" t="s">
-        <v>499</v>
-      </c>
-      <c r="K166" s="36"/>
-      <c r="L166" s="36" t="s">
-        <v>506</v>
-      </c>
-      <c r="M166" s="36"/>
+        <v>491</v>
+      </c>
+      <c r="J166" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="K166" s="37"/>
+      <c r="L166" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="M166" s="37"/>
       <c r="N166" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O166" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P166" s="31"/>
+      <c r="P166" s="32"/>
     </row>
     <row r="167" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="31"/>
-      <c r="B167" s="31">
+      <c r="A167" s="32"/>
+      <c r="B167" s="32">
         <v>500</v>
       </c>
-      <c r="C167" s="31"/>
+      <c r="C167" s="32"/>
       <c r="D167" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E167" s="36" t="s">
-        <v>479</v>
-      </c>
-      <c r="F167" s="36"/>
-      <c r="G167" s="36" t="s">
-        <v>486</v>
-      </c>
-      <c r="H167" s="36"/>
+      <c r="E167" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="F167" s="37"/>
+      <c r="G167" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="H167" s="37"/>
       <c r="I167" s="26" t="s">
-        <v>493</v>
-      </c>
-      <c r="J167" s="36" t="s">
-        <v>500</v>
-      </c>
-      <c r="K167" s="36"/>
-      <c r="L167" s="36" t="s">
-        <v>507</v>
-      </c>
-      <c r="M167" s="36"/>
+        <v>492</v>
+      </c>
+      <c r="J167" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="K167" s="37"/>
+      <c r="L167" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="M167" s="37"/>
       <c r="N167" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O167" s="22" t="e">
         <f>IF(ABS(((J167-N167)/(E167-I167)-1)*100)&gt;ABS(((L167-N167)/(G167-I167)-1)*100),((J167-N167)/(E167-I167)-1)*100,((L167-N167)/(G167-I167)-1)*100)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P167" s="31"/>
+      <c r="P167" s="32"/>
     </row>
     <row r="168" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="31"/>
-      <c r="B168" s="31">
+      <c r="A168" s="32"/>
+      <c r="B168" s="32">
         <v>1000</v>
       </c>
-      <c r="C168" s="31"/>
+      <c r="C168" s="32"/>
       <c r="D168" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E168" s="36" t="s">
-        <v>480</v>
-      </c>
-      <c r="F168" s="36"/>
-      <c r="G168" s="36" t="s">
-        <v>487</v>
-      </c>
-      <c r="H168" s="36"/>
+      <c r="E168" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="F168" s="37"/>
+      <c r="G168" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="H168" s="37"/>
       <c r="I168" s="26" t="s">
-        <v>494</v>
-      </c>
-      <c r="J168" s="36" t="s">
-        <v>501</v>
-      </c>
-      <c r="K168" s="36"/>
-      <c r="L168" s="36" t="s">
-        <v>508</v>
-      </c>
-      <c r="M168" s="36"/>
+        <v>493</v>
+      </c>
+      <c r="J168" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="K168" s="37"/>
+      <c r="L168" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="M168" s="37"/>
       <c r="N168" s="26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O168" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P168" s="31"/>
+      <c r="P168" s="32"/>
     </row>
     <row r="169" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="31">
+      <c r="A169" s="32">
         <v>3</v>
       </c>
-      <c r="B169" s="31">
+      <c r="B169" s="32">
         <v>5</v>
       </c>
-      <c r="C169" s="31"/>
+      <c r="C169" s="32"/>
       <c r="D169" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E169" s="36" t="s">
+      <c r="E169" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="F169" s="37"/>
+      <c r="G169" s="37" t="s">
         <v>509</v>
       </c>
-      <c r="F169" s="36"/>
-      <c r="G169" s="36" t="s">
+      <c r="H169" s="37"/>
+      <c r="I169" s="26" t="s">
         <v>510</v>
       </c>
-      <c r="H169" s="36"/>
-      <c r="I169" s="26" t="s">
+      <c r="J169" s="37" t="s">
         <v>511</v>
       </c>
-      <c r="J169" s="36" t="s">
+      <c r="K169" s="37"/>
+      <c r="L169" s="37" t="s">
         <v>512</v>
       </c>
-      <c r="K169" s="36"/>
-      <c r="L169" s="36" t="s">
+      <c r="M169" s="37"/>
+      <c r="N169" s="26" t="s">
         <v>513</v>
-      </c>
-      <c r="M169" s="36"/>
-      <c r="N169" s="26" t="s">
-        <v>514</v>
       </c>
       <c r="O169" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P169" s="31"/>
+      <c r="P169" s="32"/>
     </row>
     <row r="170" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="31"/>
-      <c r="B170" s="31">
+      <c r="A170" s="32"/>
+      <c r="B170" s="32">
         <v>10</v>
       </c>
-      <c r="C170" s="31"/>
+      <c r="C170" s="32"/>
       <c r="D170" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E170" s="36" t="s">
-        <v>515</v>
-      </c>
-      <c r="F170" s="36"/>
-      <c r="G170" s="36" t="s">
-        <v>522</v>
-      </c>
-      <c r="H170" s="36"/>
+      <c r="E170" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="F170" s="37"/>
+      <c r="G170" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="H170" s="37"/>
       <c r="I170" s="26" t="s">
-        <v>529</v>
-      </c>
-      <c r="J170" s="36" t="s">
-        <v>536</v>
-      </c>
-      <c r="K170" s="36"/>
-      <c r="L170" s="36" t="s">
-        <v>543</v>
-      </c>
-      <c r="M170" s="36"/>
+        <v>528</v>
+      </c>
+      <c r="J170" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="K170" s="37"/>
+      <c r="L170" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="M170" s="37"/>
       <c r="N170" s="26" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O170" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P170" s="31"/>
+      <c r="P170" s="32"/>
     </row>
     <row r="171" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="31"/>
-      <c r="B171" s="31">
+      <c r="A171" s="32"/>
+      <c r="B171" s="32">
         <v>20</v>
       </c>
-      <c r="C171" s="31"/>
+      <c r="C171" s="32"/>
       <c r="D171" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E171" s="36" t="s">
-        <v>516</v>
-      </c>
-      <c r="F171" s="36"/>
-      <c r="G171" s="36" t="s">
-        <v>523</v>
-      </c>
-      <c r="H171" s="36"/>
+      <c r="E171" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="F171" s="37"/>
+      <c r="G171" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="H171" s="37"/>
       <c r="I171" s="26" t="s">
-        <v>530</v>
-      </c>
-      <c r="J171" s="36" t="s">
-        <v>537</v>
-      </c>
-      <c r="K171" s="36"/>
-      <c r="L171" s="36" t="s">
-        <v>544</v>
-      </c>
-      <c r="M171" s="36"/>
+        <v>529</v>
+      </c>
+      <c r="J171" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="K171" s="37"/>
+      <c r="L171" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="M171" s="37"/>
       <c r="N171" s="26" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O171" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P171" s="31"/>
+      <c r="P171" s="32"/>
     </row>
     <row r="172" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="31"/>
-      <c r="B172" s="31">
+      <c r="A172" s="32"/>
+      <c r="B172" s="32">
         <v>50</v>
       </c>
-      <c r="C172" s="31"/>
+      <c r="C172" s="32"/>
       <c r="D172" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E172" s="36" t="s">
-        <v>517</v>
-      </c>
-      <c r="F172" s="36"/>
-      <c r="G172" s="36" t="s">
-        <v>524</v>
-      </c>
-      <c r="H172" s="36"/>
+      <c r="E172" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="F172" s="37"/>
+      <c r="G172" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="H172" s="37"/>
       <c r="I172" s="26" t="s">
-        <v>531</v>
-      </c>
-      <c r="J172" s="36" t="s">
-        <v>538</v>
-      </c>
-      <c r="K172" s="36"/>
-      <c r="L172" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="M172" s="36"/>
+        <v>530</v>
+      </c>
+      <c r="J172" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="K172" s="37"/>
+      <c r="L172" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="M172" s="37"/>
       <c r="N172" s="26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O172" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P172" s="31"/>
+      <c r="P172" s="32"/>
     </row>
     <row r="173" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="31"/>
-      <c r="B173" s="31">
+      <c r="A173" s="32"/>
+      <c r="B173" s="32">
         <v>100</v>
       </c>
-      <c r="C173" s="31"/>
+      <c r="C173" s="32"/>
       <c r="D173" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E173" s="36" t="s">
-        <v>518</v>
-      </c>
-      <c r="F173" s="36"/>
-      <c r="G173" s="36" t="s">
-        <v>525</v>
-      </c>
-      <c r="H173" s="36"/>
+      <c r="E173" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="F173" s="37"/>
+      <c r="G173" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="H173" s="37"/>
       <c r="I173" s="26" t="s">
-        <v>532</v>
-      </c>
-      <c r="J173" s="36" t="s">
-        <v>539</v>
-      </c>
-      <c r="K173" s="36"/>
-      <c r="L173" s="36" t="s">
-        <v>546</v>
-      </c>
-      <c r="M173" s="36"/>
+        <v>531</v>
+      </c>
+      <c r="J173" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="K173" s="37"/>
+      <c r="L173" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="M173" s="37"/>
       <c r="N173" s="26" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O173" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P173" s="31"/>
+      <c r="P173" s="32"/>
     </row>
     <row r="174" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="31"/>
-      <c r="B174" s="31">
+      <c r="A174" s="32"/>
+      <c r="B174" s="32">
         <v>200</v>
       </c>
-      <c r="C174" s="31"/>
+      <c r="C174" s="32"/>
       <c r="D174" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E174" s="36" t="s">
-        <v>519</v>
-      </c>
-      <c r="F174" s="36"/>
-      <c r="G174" s="36" t="s">
-        <v>526</v>
-      </c>
-      <c r="H174" s="36"/>
+      <c r="E174" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="F174" s="37"/>
+      <c r="G174" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="H174" s="37"/>
       <c r="I174" s="26" t="s">
-        <v>533</v>
-      </c>
-      <c r="J174" s="36" t="s">
-        <v>540</v>
-      </c>
-      <c r="K174" s="36"/>
-      <c r="L174" s="36" t="s">
-        <v>547</v>
-      </c>
-      <c r="M174" s="36"/>
+        <v>532</v>
+      </c>
+      <c r="J174" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="K174" s="37"/>
+      <c r="L174" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="M174" s="37"/>
       <c r="N174" s="26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O174" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P174" s="31"/>
+      <c r="P174" s="32"/>
     </row>
     <row r="175" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="31"/>
-      <c r="B175" s="31">
+      <c r="A175" s="32"/>
+      <c r="B175" s="32">
         <v>500</v>
       </c>
-      <c r="C175" s="31"/>
+      <c r="C175" s="32"/>
       <c r="D175" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E175" s="36" t="s">
-        <v>520</v>
-      </c>
-      <c r="F175" s="36"/>
-      <c r="G175" s="36" t="s">
-        <v>527</v>
-      </c>
-      <c r="H175" s="36"/>
+      <c r="E175" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="F175" s="37"/>
+      <c r="G175" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="H175" s="37"/>
       <c r="I175" s="26" t="s">
-        <v>534</v>
-      </c>
-      <c r="J175" s="36" t="s">
-        <v>541</v>
-      </c>
-      <c r="K175" s="36"/>
-      <c r="L175" s="36" t="s">
-        <v>548</v>
-      </c>
-      <c r="M175" s="36"/>
+        <v>533</v>
+      </c>
+      <c r="J175" s="37" t="s">
+        <v>540</v>
+      </c>
+      <c r="K175" s="37"/>
+      <c r="L175" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="M175" s="37"/>
       <c r="N175" s="26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O175" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P175" s="31"/>
+      <c r="P175" s="32"/>
     </row>
     <row r="176" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="31"/>
-      <c r="B176" s="31">
+      <c r="A176" s="32"/>
+      <c r="B176" s="32">
         <v>1000</v>
       </c>
-      <c r="C176" s="31"/>
+      <c r="C176" s="32"/>
       <c r="D176" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E176" s="36" t="s">
-        <v>521</v>
-      </c>
-      <c r="F176" s="36"/>
-      <c r="G176" s="36" t="s">
-        <v>528</v>
-      </c>
-      <c r="H176" s="36"/>
+      <c r="E176" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="F176" s="37"/>
+      <c r="G176" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="H176" s="37"/>
       <c r="I176" s="26" t="s">
-        <v>535</v>
-      </c>
-      <c r="J176" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="K176" s="36"/>
-      <c r="L176" s="36" t="s">
-        <v>549</v>
-      </c>
-      <c r="M176" s="36"/>
+        <v>534</v>
+      </c>
+      <c r="J176" s="37" t="s">
+        <v>541</v>
+      </c>
+      <c r="K176" s="37"/>
+      <c r="L176" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="M176" s="37"/>
       <c r="N176" s="26" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O176" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P176" s="31"/>
+      <c r="P176" s="32"/>
     </row>
     <row r="177" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="31">
+      <c r="A177" s="32">
         <v>4</v>
       </c>
-      <c r="B177" s="31">
+      <c r="B177" s="32">
         <v>5</v>
       </c>
-      <c r="C177" s="31"/>
+      <c r="C177" s="32"/>
       <c r="D177" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E177" s="36" t="s">
+      <c r="E177" s="37" t="s">
+        <v>556</v>
+      </c>
+      <c r="F177" s="37"/>
+      <c r="G177" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="F177" s="36"/>
-      <c r="G177" s="36" t="s">
+      <c r="H177" s="37"/>
+      <c r="I177" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="H177" s="36"/>
-      <c r="I177" s="26" t="s">
+      <c r="J177" s="37" t="s">
         <v>559</v>
       </c>
-      <c r="J177" s="36" t="s">
+      <c r="K177" s="37"/>
+      <c r="L177" s="37" t="s">
         <v>560</v>
       </c>
-      <c r="K177" s="36"/>
-      <c r="L177" s="36" t="s">
+      <c r="M177" s="37"/>
+      <c r="N177" s="26" t="s">
         <v>561</v>
-      </c>
-      <c r="M177" s="36"/>
-      <c r="N177" s="26" t="s">
-        <v>562</v>
       </c>
       <c r="O177" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P177" s="31"/>
+      <c r="P177" s="32"/>
     </row>
     <row r="178" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="31"/>
-      <c r="B178" s="31">
+      <c r="A178" s="32"/>
+      <c r="B178" s="32">
         <v>10</v>
       </c>
-      <c r="C178" s="31"/>
+      <c r="C178" s="32"/>
       <c r="D178" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E178" s="36" t="s">
-        <v>563</v>
-      </c>
-      <c r="F178" s="36"/>
-      <c r="G178" s="36" t="s">
-        <v>569</v>
-      </c>
-      <c r="H178" s="36"/>
+      <c r="E178" s="37" t="s">
+        <v>562</v>
+      </c>
+      <c r="F178" s="37"/>
+      <c r="G178" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="H178" s="37"/>
       <c r="I178" s="26" t="s">
-        <v>575</v>
-      </c>
-      <c r="J178" s="36" t="s">
-        <v>581</v>
-      </c>
-      <c r="K178" s="36"/>
-      <c r="L178" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="M178" s="36"/>
+        <v>574</v>
+      </c>
+      <c r="J178" s="37" t="s">
+        <v>580</v>
+      </c>
+      <c r="K178" s="37"/>
+      <c r="L178" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="M178" s="37"/>
       <c r="N178" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O178" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P178" s="31"/>
+      <c r="P178" s="32"/>
     </row>
     <row r="179" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="31"/>
-      <c r="B179" s="31">
+      <c r="A179" s="32"/>
+      <c r="B179" s="32">
         <v>20</v>
       </c>
-      <c r="C179" s="31"/>
+      <c r="C179" s="32"/>
       <c r="D179" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E179" s="36" t="s">
-        <v>564</v>
-      </c>
-      <c r="F179" s="36"/>
-      <c r="G179" s="36" t="s">
-        <v>570</v>
-      </c>
-      <c r="H179" s="36"/>
+      <c r="E179" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="F179" s="37"/>
+      <c r="G179" s="37" t="s">
+        <v>569</v>
+      </c>
+      <c r="H179" s="37"/>
       <c r="I179" s="26" t="s">
-        <v>576</v>
-      </c>
-      <c r="J179" s="36" t="s">
-        <v>582</v>
-      </c>
-      <c r="K179" s="36"/>
-      <c r="L179" s="36" t="s">
-        <v>588</v>
-      </c>
-      <c r="M179" s="36"/>
+        <v>575</v>
+      </c>
+      <c r="J179" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="K179" s="37"/>
+      <c r="L179" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="M179" s="37"/>
       <c r="N179" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O179" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P179" s="31"/>
+      <c r="P179" s="32"/>
     </row>
     <row r="180" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="31"/>
-      <c r="B180" s="31">
+      <c r="A180" s="32"/>
+      <c r="B180" s="32">
         <v>50</v>
       </c>
-      <c r="C180" s="31"/>
+      <c r="C180" s="32"/>
       <c r="D180" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E180" s="36" t="s">
-        <v>565</v>
-      </c>
-      <c r="F180" s="36"/>
-      <c r="G180" s="36" t="s">
-        <v>571</v>
-      </c>
-      <c r="H180" s="36"/>
+      <c r="E180" s="37" t="s">
+        <v>564</v>
+      </c>
+      <c r="F180" s="37"/>
+      <c r="G180" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="H180" s="37"/>
       <c r="I180" s="26" t="s">
-        <v>577</v>
-      </c>
-      <c r="J180" s="36" t="s">
-        <v>583</v>
-      </c>
-      <c r="K180" s="36"/>
-      <c r="L180" s="36" t="s">
-        <v>589</v>
-      </c>
-      <c r="M180" s="36"/>
+        <v>576</v>
+      </c>
+      <c r="J180" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="K180" s="37"/>
+      <c r="L180" s="37" t="s">
+        <v>588</v>
+      </c>
+      <c r="M180" s="37"/>
       <c r="N180" s="26" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O180" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P180" s="31"/>
+      <c r="P180" s="32"/>
     </row>
     <row r="181" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="31"/>
-      <c r="B181" s="31">
+      <c r="A181" s="32"/>
+      <c r="B181" s="32">
         <v>100</v>
       </c>
-      <c r="C181" s="31"/>
+      <c r="C181" s="32"/>
       <c r="D181" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E181" s="36" t="s">
-        <v>566</v>
-      </c>
-      <c r="F181" s="36"/>
-      <c r="G181" s="36" t="s">
-        <v>572</v>
-      </c>
-      <c r="H181" s="36"/>
+      <c r="E181" s="37" t="s">
+        <v>565</v>
+      </c>
+      <c r="F181" s="37"/>
+      <c r="G181" s="37" t="s">
+        <v>571</v>
+      </c>
+      <c r="H181" s="37"/>
       <c r="I181" s="26" t="s">
-        <v>578</v>
-      </c>
-      <c r="J181" s="36" t="s">
-        <v>584</v>
-      </c>
-      <c r="K181" s="36"/>
-      <c r="L181" s="36" t="s">
-        <v>590</v>
-      </c>
-      <c r="M181" s="36"/>
+        <v>577</v>
+      </c>
+      <c r="J181" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="K181" s="37"/>
+      <c r="L181" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="M181" s="37"/>
       <c r="N181" s="26" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O181" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P181" s="31"/>
+      <c r="P181" s="32"/>
     </row>
     <row r="182" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="31"/>
-      <c r="B182" s="31">
+      <c r="A182" s="32"/>
+      <c r="B182" s="32">
         <v>200</v>
       </c>
-      <c r="C182" s="31"/>
+      <c r="C182" s="32"/>
       <c r="D182" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E182" s="36" t="s">
-        <v>567</v>
-      </c>
-      <c r="F182" s="36"/>
-      <c r="G182" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="H182" s="36"/>
+      <c r="E182" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="F182" s="37"/>
+      <c r="G182" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H182" s="37"/>
       <c r="I182" s="26" t="s">
-        <v>579</v>
-      </c>
-      <c r="J182" s="36" t="s">
-        <v>585</v>
-      </c>
-      <c r="K182" s="36"/>
-      <c r="L182" s="36" t="s">
-        <v>591</v>
-      </c>
-      <c r="M182" s="36"/>
+        <v>578</v>
+      </c>
+      <c r="J182" s="37" t="s">
+        <v>584</v>
+      </c>
+      <c r="K182" s="37"/>
+      <c r="L182" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="M182" s="37"/>
       <c r="N182" s="26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O182" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P182" s="31"/>
+      <c r="P182" s="32"/>
     </row>
     <row r="183" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="31"/>
-      <c r="B183" s="31">
+      <c r="A183" s="32"/>
+      <c r="B183" s="32">
         <v>500</v>
       </c>
-      <c r="C183" s="31"/>
+      <c r="C183" s="32"/>
       <c r="D183" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E183" s="36" t="s">
-        <v>568</v>
-      </c>
-      <c r="F183" s="36"/>
-      <c r="G183" s="36" t="s">
-        <v>574</v>
-      </c>
-      <c r="H183" s="36"/>
+      <c r="E183" s="37" t="s">
+        <v>567</v>
+      </c>
+      <c r="F183" s="37"/>
+      <c r="G183" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="H183" s="37"/>
       <c r="I183" s="26" t="s">
-        <v>580</v>
-      </c>
-      <c r="J183" s="36" t="s">
-        <v>586</v>
-      </c>
-      <c r="K183" s="36"/>
-      <c r="L183" s="36" t="s">
-        <v>592</v>
-      </c>
-      <c r="M183" s="36"/>
+        <v>579</v>
+      </c>
+      <c r="J183" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="K183" s="37"/>
+      <c r="L183" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="M183" s="37"/>
       <c r="N183" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O183" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P183" s="31"/>
+      <c r="P183" s="32"/>
     </row>
     <row r="184" spans="1:16" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="34" t="s">
+      <c r="A184" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B184" s="34" t="s">
+      <c r="B184" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C184" s="34"/>
-      <c r="D184" s="34" t="s">
+      <c r="C184" s="35"/>
+      <c r="D184" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E184" s="34" t="s">
+      <c r="E184" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F184" s="35"/>
+      <c r="G184" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="F184" s="34"/>
-      <c r="G184" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="H184" s="34"/>
-      <c r="I184" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="J184" s="34" t="s">
+      <c r="H184" s="35"/>
+      <c r="I184" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="J184" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="K184" s="34"/>
-      <c r="L184" s="34" t="s">
+      <c r="K184" s="35"/>
+      <c r="L184" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="M184" s="34"/>
-      <c r="N184" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="O184" s="34" t="s">
+      <c r="M184" s="35"/>
+      <c r="N184" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="P184" s="37" t="s">
+      <c r="O184" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="P184" s="38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="185" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="34"/>
-      <c r="B185" s="34"/>
-      <c r="C185" s="34"/>
-      <c r="D185" s="34"/>
-      <c r="E185" s="34"/>
-      <c r="F185" s="34"/>
-      <c r="G185" s="34"/>
-      <c r="H185" s="34"/>
-      <c r="I185" s="34"/>
-      <c r="J185" s="34"/>
-      <c r="K185" s="34"/>
-      <c r="L185" s="34"/>
-      <c r="M185" s="34"/>
-      <c r="N185" s="34"/>
-      <c r="O185" s="34"/>
-      <c r="P185" s="34"/>
+      <c r="A185" s="35"/>
+      <c r="B185" s="35"/>
+      <c r="C185" s="35"/>
+      <c r="D185" s="35"/>
+      <c r="E185" s="35"/>
+      <c r="F185" s="35"/>
+      <c r="G185" s="35"/>
+      <c r="H185" s="35"/>
+      <c r="I185" s="35"/>
+      <c r="J185" s="35"/>
+      <c r="K185" s="35"/>
+      <c r="L185" s="35"/>
+      <c r="M185" s="35"/>
+      <c r="N185" s="35"/>
+      <c r="O185" s="35"/>
+      <c r="P185" s="35"/>
     </row>
     <row r="186" spans="1:16" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="34"/>
-      <c r="B186" s="34"/>
-      <c r="C186" s="34"/>
-      <c r="D186" s="34"/>
-      <c r="E186" s="34"/>
-      <c r="F186" s="34"/>
-      <c r="G186" s="34"/>
-      <c r="H186" s="34"/>
-      <c r="I186" s="34"/>
-      <c r="J186" s="34"/>
-      <c r="K186" s="34"/>
-      <c r="L186" s="34"/>
-      <c r="M186" s="34"/>
-      <c r="N186" s="34"/>
-      <c r="O186" s="34"/>
-      <c r="P186" s="34"/>
+      <c r="A186" s="35"/>
+      <c r="B186" s="35"/>
+      <c r="C186" s="35"/>
+      <c r="D186" s="35"/>
+      <c r="E186" s="35"/>
+      <c r="F186" s="35"/>
+      <c r="G186" s="35"/>
+      <c r="H186" s="35"/>
+      <c r="I186" s="35"/>
+      <c r="J186" s="35"/>
+      <c r="K186" s="35"/>
+      <c r="L186" s="35"/>
+      <c r="M186" s="35"/>
+      <c r="N186" s="35"/>
+      <c r="O186" s="35"/>
+      <c r="P186" s="35"/>
     </row>
     <row r="187" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="17">
         <v>4</v>
       </c>
-      <c r="B187" s="31">
+      <c r="B187" s="32">
         <v>1000</v>
       </c>
-      <c r="C187" s="31"/>
+      <c r="C187" s="32"/>
       <c r="D187" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E187" s="36" t="s">
+      <c r="E187" s="37" t="s">
+        <v>598</v>
+      </c>
+      <c r="F187" s="37"/>
+      <c r="G187" s="37" t="s">
         <v>599</v>
       </c>
-      <c r="F187" s="36"/>
-      <c r="G187" s="36" t="s">
+      <c r="H187" s="37"/>
+      <c r="I187" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="H187" s="36"/>
-      <c r="I187" s="26" t="s">
+      <c r="J187" s="37" t="s">
         <v>601</v>
       </c>
-      <c r="J187" s="36" t="s">
+      <c r="K187" s="37"/>
+      <c r="L187" s="37" t="s">
         <v>602</v>
       </c>
-      <c r="K187" s="36"/>
-      <c r="L187" s="36" t="s">
+      <c r="M187" s="37"/>
+      <c r="N187" s="26" t="s">
         <v>603</v>
-      </c>
-      <c r="M187" s="36"/>
-      <c r="N187" s="26" t="s">
-        <v>604</v>
       </c>
       <c r="O187" s="22" t="e">
         <f>IF(ABS(((J187-N187)/(E187-I187)-1)*100)&gt;ABS(((L187-N187)/(G187-I187)-1)*100),((J187-N187)/(E187-I187)-1)*100,((L187-N187)/(G187-I187)-1)*100)</f>
@@ -9946,7 +9896,7 @@
     </row>
     <row r="189" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B189" s="15"/>
       <c r="C189" s="15"/>
@@ -9983,309 +9933,309 @@
       <c r="P190" s="15"/>
     </row>
     <row r="191" spans="1:16" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="34" t="s">
+      <c r="A191" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B191" s="34"/>
-      <c r="C191" s="34"/>
-      <c r="D191" s="34" t="s">
+      <c r="B191" s="35"/>
+      <c r="C191" s="35"/>
+      <c r="D191" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E191" s="34"/>
-      <c r="F191" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="G191" s="31"/>
-      <c r="H191" s="31"/>
-      <c r="I191" s="31"/>
-      <c r="J191" s="31"/>
-      <c r="K191" s="31"/>
-      <c r="L191" s="31"/>
-      <c r="M191" s="31"/>
+      <c r="E191" s="35"/>
+      <c r="F191" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G191" s="32"/>
+      <c r="H191" s="32"/>
+      <c r="I191" s="32"/>
+      <c r="J191" s="32"/>
+      <c r="K191" s="32"/>
+      <c r="L191" s="32"/>
+      <c r="M191" s="32"/>
       <c r="N191" s="15"/>
       <c r="O191" s="15"/>
       <c r="P191" s="15"/>
     </row>
     <row r="192" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="34"/>
-      <c r="B192" s="34"/>
-      <c r="C192" s="34"/>
-      <c r="D192" s="34"/>
-      <c r="E192" s="34"/>
-      <c r="F192" s="31"/>
-      <c r="G192" s="31"/>
-      <c r="H192" s="31"/>
-      <c r="I192" s="31"/>
-      <c r="J192" s="31"/>
-      <c r="K192" s="31"/>
-      <c r="L192" s="31"/>
-      <c r="M192" s="31"/>
+      <c r="A192" s="35"/>
+      <c r="B192" s="35"/>
+      <c r="C192" s="35"/>
+      <c r="D192" s="35"/>
+      <c r="E192" s="35"/>
+      <c r="F192" s="32"/>
+      <c r="G192" s="32"/>
+      <c r="H192" s="32"/>
+      <c r="I192" s="32"/>
+      <c r="J192" s="32"/>
+      <c r="K192" s="32"/>
+      <c r="L192" s="32"/>
+      <c r="M192" s="32"/>
       <c r="N192" s="15"/>
       <c r="O192" s="15"/>
       <c r="P192" s="15"/>
     </row>
     <row r="193" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="34"/>
-      <c r="B193" s="34"/>
-      <c r="C193" s="34"/>
-      <c r="D193" s="34"/>
-      <c r="E193" s="34"/>
-      <c r="F193" s="31" t="s">
+      <c r="A193" s="35"/>
+      <c r="B193" s="35"/>
+      <c r="C193" s="35"/>
+      <c r="D193" s="35"/>
+      <c r="E193" s="35"/>
+      <c r="F193" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G193" s="32"/>
+      <c r="H193" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G193" s="31"/>
-      <c r="H193" s="31" t="s">
+      <c r="I193" s="32"/>
+      <c r="J193" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="I193" s="31"/>
-      <c r="J193" s="31" t="s">
+      <c r="K193" s="32"/>
+      <c r="L193" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="K193" s="31"/>
-      <c r="L193" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="M193" s="31"/>
+      <c r="M193" s="32"/>
       <c r="N193" s="15"/>
       <c r="O193" s="15"/>
       <c r="P193" s="15"/>
     </row>
     <row r="194" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="31">
+      <c r="A194" s="32">
         <v>5</v>
       </c>
-      <c r="B194" s="31"/>
-      <c r="C194" s="31"/>
-      <c r="D194" s="33" t="s">
+      <c r="B194" s="32"/>
+      <c r="C194" s="32"/>
+      <c r="D194" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E194" s="33"/>
-      <c r="F194" s="32" t="s">
+      <c r="E194" s="34"/>
+      <c r="F194" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G194" s="33"/>
+      <c r="H194" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="G194" s="32"/>
-      <c r="H194" s="32" t="s">
+      <c r="I194" s="33"/>
+      <c r="J194" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="I194" s="32"/>
-      <c r="J194" s="32" t="s">
+      <c r="K194" s="33"/>
+      <c r="L194" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="K194" s="32"/>
-      <c r="L194" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="M194" s="32"/>
+      <c r="M194" s="33"/>
       <c r="N194" s="15"/>
       <c r="O194" s="15"/>
       <c r="P194" s="15"/>
     </row>
     <row r="195" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="31">
+      <c r="A195" s="32">
         <v>10</v>
       </c>
-      <c r="B195" s="31"/>
-      <c r="C195" s="31"/>
-      <c r="D195" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E195" s="33"/>
-      <c r="F195" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="G195" s="32"/>
-      <c r="H195" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="I195" s="32"/>
-      <c r="J195" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="K195" s="32"/>
-      <c r="L195" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="M195" s="32"/>
+      <c r="B195" s="32"/>
+      <c r="C195" s="32"/>
+      <c r="D195" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E195" s="34"/>
+      <c r="F195" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="G195" s="33"/>
+      <c r="H195" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="I195" s="33"/>
+      <c r="J195" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="K195" s="33"/>
+      <c r="L195" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="M195" s="33"/>
       <c r="N195" s="15"/>
       <c r="O195" s="15"/>
       <c r="P195" s="15"/>
     </row>
     <row r="196" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="31">
+      <c r="A196" s="32">
         <v>20</v>
       </c>
-      <c r="B196" s="31"/>
-      <c r="C196" s="31"/>
-      <c r="D196" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E196" s="33"/>
-      <c r="F196" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="G196" s="32"/>
-      <c r="H196" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="I196" s="32"/>
-      <c r="J196" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="K196" s="32"/>
-      <c r="L196" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="M196" s="32"/>
+      <c r="B196" s="32"/>
+      <c r="C196" s="32"/>
+      <c r="D196" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E196" s="34"/>
+      <c r="F196" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G196" s="33"/>
+      <c r="H196" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="I196" s="33"/>
+      <c r="J196" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="K196" s="33"/>
+      <c r="L196" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M196" s="33"/>
       <c r="N196" s="15"/>
       <c r="O196" s="15"/>
       <c r="P196" s="15"/>
     </row>
     <row r="197" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="31">
+      <c r="A197" s="32">
         <v>50</v>
       </c>
-      <c r="B197" s="31"/>
-      <c r="C197" s="31"/>
-      <c r="D197" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E197" s="33"/>
-      <c r="F197" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="G197" s="32"/>
-      <c r="H197" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="I197" s="32"/>
-      <c r="J197" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="K197" s="32"/>
-      <c r="L197" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="M197" s="32"/>
+      <c r="B197" s="32"/>
+      <c r="C197" s="32"/>
+      <c r="D197" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E197" s="34"/>
+      <c r="F197" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="G197" s="33"/>
+      <c r="H197" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="I197" s="33"/>
+      <c r="J197" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="K197" s="33"/>
+      <c r="L197" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="M197" s="33"/>
       <c r="N197" s="15"/>
       <c r="O197" s="15"/>
       <c r="P197" s="15"/>
     </row>
     <row r="198" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="31">
+      <c r="A198" s="32">
         <v>100</v>
       </c>
-      <c r="B198" s="31"/>
-      <c r="C198" s="31"/>
-      <c r="D198" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E198" s="33"/>
-      <c r="F198" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="G198" s="32"/>
-      <c r="H198" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="I198" s="32"/>
-      <c r="J198" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="K198" s="32"/>
-      <c r="L198" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="M198" s="32"/>
+      <c r="B198" s="32"/>
+      <c r="C198" s="32"/>
+      <c r="D198" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E198" s="34"/>
+      <c r="F198" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="G198" s="33"/>
+      <c r="H198" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="I198" s="33"/>
+      <c r="J198" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="K198" s="33"/>
+      <c r="L198" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="M198" s="33"/>
       <c r="N198" s="15"/>
       <c r="O198" s="15"/>
       <c r="P198" s="15"/>
     </row>
     <row r="199" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="31">
+      <c r="A199" s="32">
         <v>200</v>
       </c>
-      <c r="B199" s="31"/>
-      <c r="C199" s="31"/>
-      <c r="D199" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E199" s="33"/>
-      <c r="F199" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="G199" s="32"/>
-      <c r="H199" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="I199" s="32"/>
-      <c r="J199" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="K199" s="32"/>
-      <c r="L199" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="M199" s="32"/>
+      <c r="B199" s="32"/>
+      <c r="C199" s="32"/>
+      <c r="D199" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E199" s="34"/>
+      <c r="F199" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="G199" s="33"/>
+      <c r="H199" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="I199" s="33"/>
+      <c r="J199" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="K199" s="33"/>
+      <c r="L199" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="M199" s="33"/>
       <c r="N199" s="15"/>
       <c r="O199" s="15"/>
       <c r="P199" s="15"/>
     </row>
     <row r="200" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="31">
+      <c r="A200" s="32">
         <v>500</v>
       </c>
-      <c r="B200" s="31"/>
-      <c r="C200" s="31"/>
-      <c r="D200" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="E200" s="33"/>
-      <c r="F200" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="G200" s="32"/>
-      <c r="H200" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="I200" s="32"/>
-      <c r="J200" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="K200" s="32"/>
-      <c r="L200" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="M200" s="32"/>
+      <c r="B200" s="32"/>
+      <c r="C200" s="32"/>
+      <c r="D200" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E200" s="34"/>
+      <c r="F200" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="G200" s="33"/>
+      <c r="H200" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="I200" s="33"/>
+      <c r="J200" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="K200" s="33"/>
+      <c r="L200" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="M200" s="33"/>
       <c r="N200" s="15"/>
       <c r="O200" s="15"/>
       <c r="P200" s="15"/>
     </row>
     <row r="201" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A201" s="31">
+      <c r="A201" s="32">
         <v>1000</v>
       </c>
-      <c r="B201" s="31"/>
-      <c r="C201" s="31"/>
-      <c r="D201" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E201" s="33"/>
-      <c r="F201" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="G201" s="32"/>
-      <c r="H201" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="I201" s="32"/>
-      <c r="J201" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="K201" s="32"/>
-      <c r="L201" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="M201" s="32"/>
+      <c r="B201" s="32"/>
+      <c r="C201" s="32"/>
+      <c r="D201" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E201" s="34"/>
+      <c r="F201" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="G201" s="33"/>
+      <c r="H201" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="I201" s="33"/>
+      <c r="J201" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="K201" s="33"/>
+      <c r="L201" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="M201" s="33"/>
       <c r="N201" s="15"/>
       <c r="O201" s="15"/>
       <c r="P201" s="15"/>
@@ -10364,7 +10314,7 @@
     </row>
     <row r="206" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A206" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B206" s="15"/>
       <c r="C206" s="15"/>
@@ -10420,7 +10370,7 @@
     </row>
     <row r="209" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A209" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B209" s="15"/>
       <c r="C209" s="15"/>
@@ -10457,29 +10407,29 @@
       <c r="P210" s="15"/>
     </row>
     <row r="211" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="B211" s="56"/>
+      <c r="A211" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B211" s="57"/>
       <c r="C211" s="23"/>
       <c r="D211" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E211" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="E211" s="58" t="s">
+      <c r="F211" s="60"/>
+      <c r="G211" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="F211" s="59"/>
-      <c r="G211" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="H211" s="56" t="s">
+      <c r="H211" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="I211" s="57"/>
+      <c r="J211" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="I211" s="56"/>
-      <c r="J211" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="K211" s="57"/>
+      <c r="K211" s="58"/>
       <c r="L211" s="15"/>
       <c r="M211" s="15"/>
       <c r="N211" s="15"/>

--- a/Shablon/DSO9104A.xlsx
+++ b/Shablon/DSO9104A.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITL\MEASControl\Shablon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_doc\ITL\MEASControl\Shablon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="736">
   <si>
     <t>Установленый коэффицент отклонения, мВ/дел</t>
   </si>
@@ -1317,44 +1317,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>1,8</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>-7</t>
-    </r>
-  </si>
-  <si>
     <t>_temp</t>
   </si>
   <si>
@@ -3463,10 +3425,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3528,22 +3491,6 @@
     <font>
       <b/>
       <i/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -3682,7 +3629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3781,7 +3728,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -3853,6 +3800,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4204,8 +4155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P228"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:H11"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A136" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E150" sqref="E150:F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4304,7 +4255,7 @@
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4417,18 +4368,18 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="54"/>
+      <c r="F11" s="55"/>
       <c r="G11" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="3"/>
@@ -4441,18 +4392,18 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="57"/>
       <c r="G12" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="3"/>
@@ -4465,18 +4416,18 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="57"/>
       <c r="G13" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="3"/>
@@ -4489,18 +4440,18 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="57"/>
       <c r="G14" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="3"/>
@@ -4804,19 +4755,19 @@
         <v>39</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F29" s="42"/>
       <c r="G29" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H29" s="42"/>
       <c r="I29" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J29" s="42"/>
       <c r="K29" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L29" s="42"/>
       <c r="M29" s="43" t="e">
@@ -4839,19 +4790,19 @@
         <v>40</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F30" s="42"/>
       <c r="G30" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J30" s="42"/>
       <c r="K30" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L30" s="42"/>
       <c r="M30" s="43" t="e">
@@ -4872,19 +4823,19 @@
         <v>27</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J31" s="42"/>
       <c r="K31" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L31" s="42"/>
       <c r="M31" s="43" t="e">
@@ -4905,19 +4856,19 @@
         <v>28</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F32" s="42"/>
       <c r="G32" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J32" s="42"/>
       <c r="K32" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L32" s="42"/>
       <c r="M32" s="43" t="e">
@@ -4938,19 +4889,19 @@
         <v>29</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J33" s="42"/>
       <c r="K33" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L33" s="42"/>
       <c r="M33" s="43" t="e">
@@ -4971,19 +4922,19 @@
         <v>30</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F34" s="42"/>
       <c r="G34" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H34" s="42"/>
       <c r="I34" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J34" s="42"/>
       <c r="K34" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L34" s="42"/>
       <c r="M34" s="43" t="e">
@@ -5004,19 +4955,19 @@
         <v>31</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H35" s="42"/>
       <c r="I35" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J35" s="42"/>
       <c r="K35" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L35" s="42"/>
       <c r="M35" s="43" t="e">
@@ -5037,19 +4988,19 @@
         <v>32</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F36" s="42"/>
       <c r="G36" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H36" s="42"/>
       <c r="I36" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J36" s="42"/>
       <c r="K36" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L36" s="42"/>
       <c r="M36" s="43" t="e">
@@ -5144,19 +5095,19 @@
         <v>33</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F40" s="42"/>
       <c r="G40" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H40" s="42"/>
       <c r="I40" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J40" s="42"/>
       <c r="K40" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L40" s="42"/>
       <c r="M40" s="43" t="e">
@@ -5179,19 +5130,19 @@
         <v>34</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F41" s="42"/>
       <c r="G41" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H41" s="42"/>
       <c r="I41" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J41" s="42"/>
       <c r="K41" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L41" s="42"/>
       <c r="M41" s="43" t="e">
@@ -5212,19 +5163,19 @@
         <v>26</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F42" s="42"/>
       <c r="G42" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H42" s="42"/>
       <c r="I42" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J42" s="42"/>
       <c r="K42" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L42" s="42"/>
       <c r="M42" s="43" t="e">
@@ -5245,19 +5196,19 @@
         <v>27</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F43" s="42"/>
       <c r="G43" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H43" s="42"/>
       <c r="I43" s="42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J43" s="42"/>
       <c r="K43" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L43" s="42"/>
       <c r="M43" s="43" t="e">
@@ -5278,19 +5229,19 @@
         <v>28</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F44" s="42"/>
       <c r="G44" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H44" s="42"/>
       <c r="I44" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J44" s="42"/>
       <c r="K44" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L44" s="42"/>
       <c r="M44" s="43" t="e">
@@ -5311,19 +5262,19 @@
         <v>29</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F45" s="42"/>
       <c r="G45" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H45" s="42"/>
       <c r="I45" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J45" s="42"/>
       <c r="K45" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L45" s="42"/>
       <c r="M45" s="43" t="e">
@@ -5344,19 +5295,19 @@
         <v>30</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F46" s="42"/>
       <c r="G46" s="42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H46" s="42"/>
       <c r="I46" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J46" s="42"/>
       <c r="K46" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L46" s="42"/>
       <c r="M46" s="43" t="e">
@@ -5377,19 +5328,19 @@
         <v>31</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F47" s="42"/>
       <c r="G47" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H47" s="42"/>
       <c r="I47" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J47" s="42"/>
       <c r="K47" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L47" s="42"/>
       <c r="M47" s="43" t="e">
@@ -5410,19 +5361,19 @@
         <v>32</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F48" s="42"/>
       <c r="G48" s="42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H48" s="42"/>
       <c r="I48" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J48" s="42"/>
       <c r="K48" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L48" s="42"/>
       <c r="M48" s="43" t="e">
@@ -5445,19 +5396,19 @@
         <v>41</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F49" s="42"/>
       <c r="G49" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H49" s="42"/>
       <c r="I49" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J49" s="42"/>
       <c r="K49" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L49" s="42"/>
       <c r="M49" s="43" t="e">
@@ -5478,19 +5429,19 @@
         <v>40</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F50" s="42"/>
       <c r="G50" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H50" s="42"/>
       <c r="I50" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J50" s="42"/>
       <c r="K50" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L50" s="42"/>
       <c r="M50" s="43" t="e">
@@ -5511,19 +5462,19 @@
         <v>27</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F51" s="42"/>
       <c r="G51" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H51" s="42"/>
       <c r="I51" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J51" s="42"/>
       <c r="K51" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L51" s="42"/>
       <c r="M51" s="43" t="e">
@@ -5544,19 +5495,19 @@
         <v>28</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F52" s="42"/>
       <c r="G52" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H52" s="42"/>
       <c r="I52" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J52" s="42"/>
       <c r="K52" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L52" s="42"/>
       <c r="M52" s="43" t="e">
@@ -5577,19 +5528,19 @@
         <v>29</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F53" s="42"/>
       <c r="G53" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H53" s="42"/>
       <c r="I53" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J53" s="42"/>
       <c r="K53" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L53" s="42"/>
       <c r="M53" s="43" t="e">
@@ -5610,19 +5561,19 @@
         <v>30</v>
       </c>
       <c r="E54" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F54" s="42"/>
       <c r="G54" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H54" s="42"/>
       <c r="I54" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J54" s="42"/>
       <c r="K54" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L54" s="42"/>
       <c r="M54" s="43" t="e">
@@ -5643,19 +5594,19 @@
         <v>31</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F55" s="42"/>
       <c r="G55" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H55" s="42"/>
       <c r="I55" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J55" s="42"/>
       <c r="K55" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L55" s="42"/>
       <c r="M55" s="43" t="e">
@@ -5676,19 +5627,19 @@
         <v>32</v>
       </c>
       <c r="E56" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F56" s="42"/>
       <c r="G56" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H56" s="42"/>
       <c r="I56" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J56" s="42"/>
       <c r="K56" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L56" s="42"/>
       <c r="M56" s="43" t="e">
@@ -5709,19 +5660,19 @@
         <v>33</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F57" s="42"/>
       <c r="G57" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H57" s="42"/>
       <c r="I57" s="42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J57" s="42"/>
       <c r="K57" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L57" s="42"/>
       <c r="M57" s="43" t="e">
@@ -5742,19 +5693,19 @@
         <v>34</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F58" s="42"/>
       <c r="G58" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H58" s="42"/>
       <c r="I58" s="42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J58" s="42"/>
       <c r="K58" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L58" s="42"/>
       <c r="M58" s="43" t="e">
@@ -5775,19 +5726,19 @@
         <v>26</v>
       </c>
       <c r="E59" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F59" s="42"/>
       <c r="G59" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H59" s="42"/>
       <c r="I59" s="42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J59" s="42"/>
       <c r="K59" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L59" s="42"/>
       <c r="M59" s="43" t="e">
@@ -5808,19 +5759,19 @@
         <v>27</v>
       </c>
       <c r="E60" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F60" s="42"/>
       <c r="G60" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H60" s="42"/>
       <c r="I60" s="42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J60" s="42"/>
       <c r="K60" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L60" s="42"/>
       <c r="M60" s="43" t="e">
@@ -5841,19 +5792,19 @@
         <v>28</v>
       </c>
       <c r="E61" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F61" s="42"/>
       <c r="G61" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H61" s="42"/>
       <c r="I61" s="42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J61" s="42"/>
       <c r="K61" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L61" s="42"/>
       <c r="M61" s="43" t="e">
@@ -5874,19 +5825,19 @@
         <v>29</v>
       </c>
       <c r="E62" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F62" s="42"/>
       <c r="G62" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H62" s="42"/>
       <c r="I62" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J62" s="42"/>
       <c r="K62" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L62" s="42"/>
       <c r="M62" s="43" t="e">
@@ -5907,19 +5858,19 @@
         <v>30</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F63" s="42"/>
       <c r="G63" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H63" s="42"/>
       <c r="I63" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J63" s="42"/>
       <c r="K63" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L63" s="42"/>
       <c r="M63" s="43" t="e">
@@ -5940,19 +5891,19 @@
         <v>31</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F64" s="42"/>
       <c r="G64" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H64" s="42"/>
       <c r="I64" s="42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J64" s="42"/>
       <c r="K64" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L64" s="42"/>
       <c r="M64" s="43" t="e">
@@ -5973,19 +5924,19 @@
         <v>32</v>
       </c>
       <c r="E65" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F65" s="42"/>
       <c r="G65" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H65" s="42"/>
       <c r="I65" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J65" s="42"/>
       <c r="K65" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L65" s="42"/>
       <c r="M65" s="43" t="e">
@@ -6008,19 +5959,19 @@
         <v>39</v>
       </c>
       <c r="E66" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F66" s="42"/>
       <c r="G66" s="42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H66" s="42"/>
       <c r="I66" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J66" s="42"/>
       <c r="K66" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L66" s="42"/>
       <c r="M66" s="43" t="e">
@@ -6041,19 +5992,19 @@
         <v>40</v>
       </c>
       <c r="E67" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F67" s="42"/>
       <c r="G67" s="42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H67" s="42"/>
       <c r="I67" s="42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J67" s="42"/>
       <c r="K67" s="42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L67" s="42"/>
       <c r="M67" s="43" t="e">
@@ -6074,19 +6025,19 @@
         <v>27</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F68" s="42"/>
       <c r="G68" s="42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H68" s="42"/>
       <c r="I68" s="42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J68" s="42"/>
       <c r="K68" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L68" s="42"/>
       <c r="M68" s="43" t="e">
@@ -6107,19 +6058,19 @@
         <v>28</v>
       </c>
       <c r="E69" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F69" s="42"/>
       <c r="G69" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H69" s="42"/>
       <c r="I69" s="42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J69" s="42"/>
       <c r="K69" s="42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L69" s="42"/>
       <c r="M69" s="43" t="e">
@@ -6140,19 +6091,19 @@
         <v>29</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F70" s="42"/>
       <c r="G70" s="42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H70" s="42"/>
       <c r="I70" s="42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J70" s="42"/>
       <c r="K70" s="42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L70" s="42"/>
       <c r="M70" s="43" t="e">
@@ -6173,19 +6124,19 @@
         <v>30</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F71" s="42"/>
       <c r="G71" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H71" s="42"/>
       <c r="I71" s="42" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J71" s="42"/>
       <c r="K71" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L71" s="42"/>
       <c r="M71" s="43" t="e">
@@ -6206,19 +6157,19 @@
         <v>31</v>
       </c>
       <c r="E72" s="42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F72" s="42"/>
       <c r="G72" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H72" s="42"/>
       <c r="I72" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J72" s="42"/>
       <c r="K72" s="42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L72" s="42"/>
       <c r="M72" s="43" t="e">
@@ -6239,19 +6190,19 @@
         <v>32</v>
       </c>
       <c r="E73" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F73" s="42"/>
       <c r="G73" s="42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H73" s="42"/>
       <c r="I73" s="42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J73" s="42"/>
       <c r="K73" s="42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L73" s="42"/>
       <c r="M73" s="43" t="e">
@@ -6346,19 +6297,19 @@
         <v>33</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F77" s="42"/>
       <c r="G77" s="42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H77" s="42"/>
       <c r="I77" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J77" s="42"/>
       <c r="K77" s="42" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L77" s="42"/>
       <c r="M77" s="43" t="e">
@@ -6381,19 +6332,19 @@
         <v>34</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F78" s="42"/>
       <c r="G78" s="42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H78" s="42"/>
       <c r="I78" s="42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J78" s="42"/>
       <c r="K78" s="42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L78" s="42"/>
       <c r="M78" s="43" t="e">
@@ -6414,19 +6365,19 @@
         <v>26</v>
       </c>
       <c r="E79" s="42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F79" s="42"/>
       <c r="G79" s="42" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H79" s="42"/>
       <c r="I79" s="42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J79" s="42"/>
       <c r="K79" s="42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L79" s="42"/>
       <c r="M79" s="43" t="e">
@@ -6447,19 +6398,19 @@
         <v>27</v>
       </c>
       <c r="E80" s="42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F80" s="42"/>
       <c r="G80" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H80" s="42"/>
       <c r="I80" s="42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J80" s="42"/>
       <c r="K80" s="42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L80" s="42"/>
       <c r="M80" s="43" t="e">
@@ -6480,19 +6431,19 @@
         <v>28</v>
       </c>
       <c r="E81" s="42" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F81" s="42"/>
       <c r="G81" s="42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H81" s="42"/>
       <c r="I81" s="42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J81" s="42"/>
       <c r="K81" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L81" s="42"/>
       <c r="M81" s="43" t="e">
@@ -6513,19 +6464,19 @@
         <v>29</v>
       </c>
       <c r="E82" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F82" s="42"/>
       <c r="G82" s="42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H82" s="42"/>
       <c r="I82" s="42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J82" s="42"/>
       <c r="K82" s="42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L82" s="42"/>
       <c r="M82" s="43" t="e">
@@ -6546,19 +6497,19 @@
         <v>30</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F83" s="42"/>
       <c r="G83" s="42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H83" s="42"/>
       <c r="I83" s="42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J83" s="42"/>
       <c r="K83" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L83" s="42"/>
       <c r="M83" s="43" t="e">
@@ -6579,19 +6530,19 @@
         <v>31</v>
       </c>
       <c r="E84" s="42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F84" s="42"/>
       <c r="G84" s="42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H84" s="42"/>
       <c r="I84" s="42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J84" s="42"/>
       <c r="K84" s="42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L84" s="42"/>
       <c r="M84" s="43" t="e">
@@ -6612,19 +6563,19 @@
         <v>32</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F85" s="42"/>
       <c r="G85" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H85" s="42"/>
       <c r="I85" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J85" s="42"/>
       <c r="K85" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L85" s="42"/>
       <c r="M85" s="43" t="e">
@@ -6647,19 +6598,19 @@
         <v>39</v>
       </c>
       <c r="E86" s="42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F86" s="42"/>
       <c r="G86" s="42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H86" s="42"/>
       <c r="I86" s="42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J86" s="42"/>
       <c r="K86" s="42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L86" s="42"/>
       <c r="M86" s="43" t="e">
@@ -6680,19 +6631,19 @@
         <v>40</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F87" s="42"/>
       <c r="G87" s="42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H87" s="42"/>
       <c r="I87" s="42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J87" s="42"/>
       <c r="K87" s="42" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L87" s="42"/>
       <c r="M87" s="43" t="e">
@@ -6713,19 +6664,19 @@
         <v>27</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F88" s="42"/>
       <c r="G88" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H88" s="42"/>
       <c r="I88" s="42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J88" s="42"/>
       <c r="K88" s="42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L88" s="42"/>
       <c r="M88" s="43" t="e">
@@ -6746,19 +6697,19 @@
         <v>28</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F89" s="42"/>
       <c r="G89" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H89" s="42"/>
       <c r="I89" s="42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J89" s="42"/>
       <c r="K89" s="42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L89" s="42"/>
       <c r="M89" s="43" t="e">
@@ -6779,19 +6730,19 @@
         <v>29</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F90" s="42"/>
       <c r="G90" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H90" s="42"/>
       <c r="I90" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J90" s="42"/>
       <c r="K90" s="42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L90" s="42"/>
       <c r="M90" s="43" t="e">
@@ -6812,19 +6763,19 @@
         <v>30</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F91" s="42"/>
       <c r="G91" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H91" s="42"/>
       <c r="I91" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J91" s="42"/>
       <c r="K91" s="42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L91" s="42"/>
       <c r="M91" s="43" t="e">
@@ -6845,19 +6796,19 @@
         <v>31</v>
       </c>
       <c r="E92" s="42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F92" s="42"/>
       <c r="G92" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H92" s="42"/>
       <c r="I92" s="42" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J92" s="42"/>
       <c r="K92" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L92" s="42"/>
       <c r="M92" s="43" t="e">
@@ -6878,19 +6829,19 @@
         <v>32</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F93" s="42"/>
       <c r="G93" s="42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H93" s="42"/>
       <c r="I93" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J93" s="42"/>
       <c r="K93" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L93" s="42"/>
       <c r="M93" s="43" t="e">
@@ -6911,19 +6862,19 @@
         <v>33</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F94" s="42"/>
       <c r="G94" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H94" s="42"/>
       <c r="I94" s="42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J94" s="42"/>
       <c r="K94" s="42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L94" s="42"/>
       <c r="M94" s="43" t="e">
@@ -6944,19 +6895,19 @@
         <v>34</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F95" s="42"/>
       <c r="G95" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H95" s="42"/>
       <c r="I95" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J95" s="42"/>
       <c r="K95" s="42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L95" s="42"/>
       <c r="M95" s="43" t="e">
@@ -6977,19 +6928,19 @@
         <v>26</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F96" s="42"/>
       <c r="G96" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H96" s="42"/>
       <c r="I96" s="42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J96" s="42"/>
       <c r="K96" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L96" s="42"/>
       <c r="M96" s="43" t="e">
@@ -7010,19 +6961,19 @@
         <v>27</v>
       </c>
       <c r="E97" s="42" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F97" s="42"/>
       <c r="G97" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H97" s="42"/>
       <c r="I97" s="42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J97" s="42"/>
       <c r="K97" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L97" s="42"/>
       <c r="M97" s="43" t="e">
@@ -7043,19 +6994,19 @@
         <v>28</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F98" s="42"/>
       <c r="G98" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H98" s="42"/>
       <c r="I98" s="42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J98" s="42"/>
       <c r="K98" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L98" s="42"/>
       <c r="M98" s="43" t="e">
@@ -7076,19 +7027,19 @@
         <v>29</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F99" s="42"/>
       <c r="G99" s="42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H99" s="42"/>
       <c r="I99" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J99" s="42"/>
       <c r="K99" s="42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L99" s="42"/>
       <c r="M99" s="43" t="e">
@@ -7109,19 +7060,19 @@
         <v>30</v>
       </c>
       <c r="E100" s="42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F100" s="42"/>
       <c r="G100" s="42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H100" s="42"/>
       <c r="I100" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J100" s="42"/>
       <c r="K100" s="42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L100" s="42"/>
       <c r="M100" s="43" t="e">
@@ -7142,19 +7093,19 @@
         <v>31</v>
       </c>
       <c r="E101" s="42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F101" s="42"/>
       <c r="G101" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H101" s="42"/>
       <c r="I101" s="42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J101" s="42"/>
       <c r="K101" s="42" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L101" s="42"/>
       <c r="M101" s="43" t="e">
@@ -7175,19 +7126,19 @@
         <v>32</v>
       </c>
       <c r="E102" s="42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F102" s="42"/>
       <c r="G102" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H102" s="42"/>
       <c r="I102" s="42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J102" s="42"/>
       <c r="K102" s="42" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L102" s="42"/>
       <c r="M102" s="43" t="e">
@@ -7262,10 +7213,10 @@
         <v>42</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E106" s="16" t="s">
         <v>84</v>
@@ -7274,7 +7225,7 @@
         <v>85</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H106" s="27" t="s">
         <v>45</v>
@@ -7296,16 +7247,16 @@
         <v>5</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E107" s="29" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F107" s="29" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G107" s="22" t="e">
         <f>20*LOG10((E107/F107)/(C107/D107))</f>
@@ -7329,16 +7280,16 @@
         <v>10</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D108" s="29" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E108" s="29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F108" s="29" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G108" s="22" t="e">
         <f t="shared" ref="G108:G115" si="8">20*LOG10((E108/F108)/(C108/D108))</f>
@@ -7360,16 +7311,16 @@
         <v>20</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E109" s="29" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F109" s="29" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G109" s="22" t="e">
         <f t="shared" si="8"/>
@@ -7393,10 +7344,10 @@
         <v>42</v>
       </c>
       <c r="C110" s="16" t="s">
+        <v>670</v>
+      </c>
+      <c r="D110" s="16" t="s">
         <v>671</v>
-      </c>
-      <c r="D110" s="16" t="s">
-        <v>672</v>
       </c>
       <c r="E110" s="16" t="s">
         <v>43</v>
@@ -7405,7 +7356,7 @@
         <v>44</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H110" s="17" t="s">
         <v>45</v>
@@ -7427,16 +7378,16 @@
         <v>50</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E111" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F111" s="29" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G111" s="22" t="e">
         <f t="shared" si="8"/>
@@ -7460,16 +7411,16 @@
         <v>100</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E112" s="29" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F112" s="29" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G112" s="22" t="e">
         <f t="shared" si="8"/>
@@ -7491,16 +7442,16 @@
         <v>200</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E113" s="29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F113" s="29" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G113" s="22" t="e">
         <f t="shared" si="8"/>
@@ -7522,16 +7473,16 @@
         <v>500</v>
       </c>
       <c r="C114" s="29" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E114" s="29" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F114" s="29" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G114" s="22" t="e">
         <f t="shared" si="8"/>
@@ -7553,16 +7504,16 @@
         <v>1000</v>
       </c>
       <c r="C115" s="29" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E115" s="29" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F115" s="29" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G115" s="22" t="e">
         <f t="shared" si="8"/>
@@ -7586,16 +7537,16 @@
         <v>5</v>
       </c>
       <c r="C116" s="29" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D116" s="29" t="s">
+        <v>688</v>
+      </c>
+      <c r="E116" s="29" t="s">
+        <v>619</v>
+      </c>
+      <c r="F116" s="29" t="s">
         <v>689</v>
-      </c>
-      <c r="E116" s="29" t="s">
-        <v>620</v>
-      </c>
-      <c r="F116" s="29" t="s">
-        <v>690</v>
       </c>
       <c r="G116" s="22" t="e">
         <f t="shared" ref="G116:G139" si="9">20*LOG10((E116/F116)/(C116/D116))</f>
@@ -7617,16 +7568,16 @@
         <v>10</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D117" s="29" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E117" s="29" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F117" s="29" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G117" s="22" t="e">
         <f t="shared" si="9"/>
@@ -7648,16 +7599,16 @@
         <v>20</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F118" s="29" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G118" s="22" t="e">
         <f t="shared" si="9"/>
@@ -7679,16 +7630,16 @@
         <v>50</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E119" s="29" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F119" s="29" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G119" s="22" t="e">
         <f t="shared" si="9"/>
@@ -7710,16 +7661,16 @@
         <v>100</v>
       </c>
       <c r="C120" s="29" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E120" s="29" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F120" s="29" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G120" s="22" t="e">
         <f t="shared" si="9"/>
@@ -7741,16 +7692,16 @@
         <v>200</v>
       </c>
       <c r="C121" s="29" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E121" s="29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F121" s="29" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G121" s="22" t="e">
         <f t="shared" si="9"/>
@@ -7772,16 +7723,16 @@
         <v>500</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E122" s="29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F122" s="29" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G122" s="22" t="e">
         <f t="shared" si="9"/>
@@ -7803,16 +7754,16 @@
         <v>1000</v>
       </c>
       <c r="C123" s="29" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E123" s="29" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F123" s="29" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G123" s="22" t="e">
         <f t="shared" si="9"/>
@@ -7836,16 +7787,16 @@
         <v>5</v>
       </c>
       <c r="C124" s="29" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D124" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="E124" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="F124" s="29" t="s">
         <v>705</v>
-      </c>
-      <c r="E124" s="29" t="s">
-        <v>644</v>
-      </c>
-      <c r="F124" s="29" t="s">
-        <v>706</v>
       </c>
       <c r="G124" s="22" t="e">
         <f t="shared" si="9"/>
@@ -7867,16 +7818,16 @@
         <v>10</v>
       </c>
       <c r="C125" s="29" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E125" s="29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F125" s="29" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G125" s="22" t="e">
         <f t="shared" si="9"/>
@@ -7898,16 +7849,16 @@
         <v>20</v>
       </c>
       <c r="C126" s="29" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E126" s="29" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F126" s="29" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G126" s="22" t="e">
         <f t="shared" si="9"/>
@@ -7929,16 +7880,16 @@
         <v>50</v>
       </c>
       <c r="C127" s="29" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E127" s="29" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F127" s="29" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G127" s="22" t="e">
         <f t="shared" si="9"/>
@@ -7960,16 +7911,16 @@
         <v>100</v>
       </c>
       <c r="C128" s="29" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E128" s="29" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F128" s="29" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G128" s="22" t="e">
         <f t="shared" si="9"/>
@@ -7991,16 +7942,16 @@
         <v>200</v>
       </c>
       <c r="C129" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F129" s="29" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G129" s="22" t="e">
         <f t="shared" si="9"/>
@@ -8022,16 +7973,16 @@
         <v>500</v>
       </c>
       <c r="C130" s="29" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D130" s="29" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E130" s="29" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F130" s="29" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G130" s="22" t="e">
         <f t="shared" si="9"/>
@@ -8053,16 +8004,16 @@
         <v>1000</v>
       </c>
       <c r="C131" s="29" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D131" s="29" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E131" s="29" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F131" s="29" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G131" s="22" t="e">
         <f t="shared" si="9"/>
@@ -8086,16 +8037,16 @@
         <v>5</v>
       </c>
       <c r="C132" s="29" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D132" s="29" t="s">
+        <v>720</v>
+      </c>
+      <c r="E132" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="F132" s="29" t="s">
         <v>721</v>
-      </c>
-      <c r="E132" s="29" t="s">
-        <v>660</v>
-      </c>
-      <c r="F132" s="29" t="s">
-        <v>722</v>
       </c>
       <c r="G132" s="22" t="e">
         <f t="shared" si="9"/>
@@ -8117,16 +8068,16 @@
         <v>10</v>
       </c>
       <c r="C133" s="29" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E133" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F133" s="29" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G133" s="22" t="e">
         <f t="shared" si="9"/>
@@ -8148,16 +8099,16 @@
         <v>20</v>
       </c>
       <c r="C134" s="29" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F134" s="29" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G134" s="22" t="e">
         <f t="shared" si="9"/>
@@ -8179,16 +8130,16 @@
         <v>50</v>
       </c>
       <c r="C135" s="29" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D135" s="29" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F135" s="29" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G135" s="22" t="e">
         <f t="shared" si="9"/>
@@ -8210,16 +8161,16 @@
         <v>100</v>
       </c>
       <c r="C136" s="29" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D136" s="29" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F136" s="29" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G136" s="22" t="e">
         <f t="shared" si="9"/>
@@ -8241,16 +8192,16 @@
         <v>200</v>
       </c>
       <c r="C137" s="29" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D137" s="29" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F137" s="29" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G137" s="22" t="e">
         <f t="shared" si="9"/>
@@ -8272,16 +8223,16 @@
         <v>500</v>
       </c>
       <c r="C138" s="29" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D138" s="29" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F138" s="29" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G138" s="22" t="e">
         <f t="shared" si="9"/>
@@ -8303,16 +8254,16 @@
         <v>1000</v>
       </c>
       <c r="C139" s="29" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D139" s="29" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E139" s="29" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F139" s="29" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G139" s="22" t="e">
         <f t="shared" si="9"/>
@@ -8385,10 +8336,10 @@
       <c r="P142" s="15"/>
     </row>
     <row r="143" spans="1:16" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="49" t="s">
+      <c r="A143" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B143" s="49"/>
+      <c r="B143" s="50"/>
       <c r="C143" s="32" t="s">
         <v>48</v>
       </c>
@@ -8410,13 +8361,14 @@
     </row>
     <row r="144" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="37">
-        <v>21.8</v>
+        <v>15.43</v>
       </c>
       <c r="B144" s="37"/>
-      <c r="C144" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="D144" s="37"/>
+      <c r="C144" s="49">
+        <f>(A144-20)/10000000</f>
+        <v>-4.5700000000000003E-7</v>
+      </c>
+      <c r="D144" s="49"/>
       <c r="E144" s="35" t="s">
         <v>49</v>
       </c>
@@ -8614,26 +8566,26 @@
         <v>50</v>
       </c>
       <c r="E153" s="37" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F153" s="37"/>
       <c r="G153" s="37" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H153" s="37"/>
       <c r="I153" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="J153" s="37" t="s">
         <v>422</v>
-      </c>
-      <c r="J153" s="37" t="s">
-        <v>423</v>
       </c>
       <c r="K153" s="37"/>
       <c r="L153" s="37" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M153" s="37"/>
       <c r="N153" s="26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O153" s="22" t="e">
         <f>IF(ABS(((J153-N153)/(E153-I153)-1)*100)&gt;ABS(((L153-N153)/(G153-I153)-1)*100),((J153-N153)/(E153-I153)-1)*100,((L153-N153)/(G153-I153)-1)*100)</f>
@@ -8653,26 +8605,26 @@
         <v>51</v>
       </c>
       <c r="E154" s="37" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F154" s="37"/>
       <c r="G154" s="37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H154" s="37"/>
       <c r="I154" s="26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J154" s="37" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K154" s="37"/>
       <c r="L154" s="37" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M154" s="37"/>
       <c r="N154" s="26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O154" s="22" t="e">
         <f t="shared" ref="O154:O183" si="10">IF(ABS(((J154-N154)/(E154-I154)-1)*100)&gt;ABS(((L154-N154)/(G154-I154)-1)*100),((J154-N154)/(E154-I154)-1)*100,((L154-N154)/(G154-I154)-1)*100)</f>
@@ -8690,26 +8642,26 @@
         <v>52</v>
       </c>
       <c r="E155" s="37" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F155" s="37"/>
       <c r="G155" s="37" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H155" s="37"/>
       <c r="I155" s="26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J155" s="37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K155" s="37"/>
       <c r="L155" s="37" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M155" s="37"/>
       <c r="N155" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O155" s="22" t="e">
         <f t="shared" si="10"/>
@@ -8727,26 +8679,26 @@
         <v>30</v>
       </c>
       <c r="E156" s="37" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H156" s="37"/>
       <c r="I156" s="26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J156" s="37" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K156" s="37"/>
       <c r="L156" s="37" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M156" s="37"/>
       <c r="N156" s="26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O156" s="22" t="e">
         <f t="shared" si="10"/>
@@ -8764,26 +8716,26 @@
         <v>54</v>
       </c>
       <c r="E157" s="37" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F157" s="37"/>
       <c r="G157" s="37" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H157" s="37"/>
       <c r="I157" s="26" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J157" s="37" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K157" s="37"/>
       <c r="L157" s="37" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M157" s="37"/>
       <c r="N157" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O157" s="22" t="e">
         <f t="shared" si="10"/>
@@ -8801,26 +8753,26 @@
         <v>55</v>
       </c>
       <c r="E158" s="37" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F158" s="37"/>
       <c r="G158" s="37" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H158" s="37"/>
       <c r="I158" s="26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J158" s="37" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K158" s="37"/>
       <c r="L158" s="37" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M158" s="37"/>
       <c r="N158" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O158" s="22" t="e">
         <f t="shared" si="10"/>
@@ -8838,26 +8790,26 @@
         <v>53</v>
       </c>
       <c r="E159" s="37" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F159" s="37"/>
       <c r="G159" s="37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H159" s="37"/>
       <c r="I159" s="26" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J159" s="37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K159" s="37"/>
       <c r="L159" s="37" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M159" s="37"/>
       <c r="N159" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O159" s="22" t="e">
         <f t="shared" si="10"/>
@@ -8875,26 +8827,26 @@
         <v>53</v>
       </c>
       <c r="E160" s="37" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F160" s="37"/>
       <c r="G160" s="37" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H160" s="37"/>
       <c r="I160" s="26" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J160" s="37" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K160" s="37"/>
       <c r="L160" s="37" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M160" s="37"/>
       <c r="N160" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O160" s="22" t="e">
         <f t="shared" si="10"/>
@@ -8914,26 +8866,26 @@
         <v>50</v>
       </c>
       <c r="E161" s="37" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F161" s="37"/>
       <c r="G161" s="37" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H161" s="37"/>
       <c r="I161" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="J161" s="37" t="s">
         <v>470</v>
-      </c>
-      <c r="J161" s="37" t="s">
-        <v>471</v>
       </c>
       <c r="K161" s="37"/>
       <c r="L161" s="37" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M161" s="37"/>
       <c r="N161" s="26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O161" s="22" t="e">
         <f t="shared" si="10"/>
@@ -8951,26 +8903,26 @@
         <v>51</v>
       </c>
       <c r="E162" s="37" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F162" s="37"/>
       <c r="G162" s="37" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H162" s="37"/>
       <c r="I162" s="26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J162" s="37" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K162" s="37"/>
       <c r="L162" s="37" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M162" s="37"/>
       <c r="N162" s="26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O162" s="22" t="e">
         <f t="shared" si="10"/>
@@ -8988,26 +8940,26 @@
         <v>52</v>
       </c>
       <c r="E163" s="37" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F163" s="37"/>
       <c r="G163" s="37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H163" s="37"/>
       <c r="I163" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J163" s="37" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K163" s="37"/>
       <c r="L163" s="37" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M163" s="37"/>
       <c r="N163" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O163" s="22" t="e">
         <f t="shared" si="10"/>
@@ -9025,26 +8977,26 @@
         <v>30</v>
       </c>
       <c r="E164" s="37" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F164" s="37"/>
       <c r="G164" s="37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H164" s="37"/>
       <c r="I164" s="26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J164" s="37" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K164" s="37"/>
       <c r="L164" s="37" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M164" s="37"/>
       <c r="N164" s="26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O164" s="22" t="e">
         <f t="shared" si="10"/>
@@ -9062,26 +9014,26 @@
         <v>54</v>
       </c>
       <c r="E165" s="37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F165" s="37"/>
       <c r="G165" s="37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H165" s="37"/>
       <c r="I165" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J165" s="37" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K165" s="37"/>
       <c r="L165" s="37" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M165" s="37"/>
       <c r="N165" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O165" s="22" t="e">
         <f t="shared" si="10"/>
@@ -9099,26 +9051,26 @@
         <v>55</v>
       </c>
       <c r="E166" s="37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F166" s="37"/>
       <c r="G166" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H166" s="37"/>
       <c r="I166" s="26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J166" s="37" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K166" s="37"/>
       <c r="L166" s="37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M166" s="37"/>
       <c r="N166" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O166" s="22" t="e">
         <f t="shared" si="10"/>
@@ -9136,26 +9088,26 @@
         <v>53</v>
       </c>
       <c r="E167" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F167" s="37"/>
       <c r="G167" s="37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H167" s="37"/>
       <c r="I167" s="26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J167" s="37" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K167" s="37"/>
       <c r="L167" s="37" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M167" s="37"/>
       <c r="N167" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O167" s="22" t="e">
         <f>IF(ABS(((J167-N167)/(E167-I167)-1)*100)&gt;ABS(((L167-N167)/(G167-I167)-1)*100),((J167-N167)/(E167-I167)-1)*100,((L167-N167)/(G167-I167)-1)*100)</f>
@@ -9173,26 +9125,26 @@
         <v>53</v>
       </c>
       <c r="E168" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F168" s="37"/>
       <c r="G168" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H168" s="37"/>
       <c r="I168" s="26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J168" s="37" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K168" s="37"/>
       <c r="L168" s="37" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M168" s="37"/>
       <c r="N168" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O168" s="22" t="e">
         <f t="shared" si="10"/>
@@ -9212,26 +9164,26 @@
         <v>50</v>
       </c>
       <c r="E169" s="37" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F169" s="37"/>
       <c r="G169" s="37" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H169" s="37"/>
       <c r="I169" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="J169" s="37" t="s">
         <v>510</v>
-      </c>
-      <c r="J169" s="37" t="s">
-        <v>511</v>
       </c>
       <c r="K169" s="37"/>
       <c r="L169" s="37" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M169" s="37"/>
       <c r="N169" s="26" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O169" s="22" t="e">
         <f t="shared" si="10"/>
@@ -9249,26 +9201,26 @@
         <v>51</v>
       </c>
       <c r="E170" s="37" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F170" s="37"/>
       <c r="G170" s="37" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H170" s="37"/>
       <c r="I170" s="26" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J170" s="37" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K170" s="37"/>
       <c r="L170" s="37" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M170" s="37"/>
       <c r="N170" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O170" s="22" t="e">
         <f t="shared" si="10"/>
@@ -9286,26 +9238,26 @@
         <v>52</v>
       </c>
       <c r="E171" s="37" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F171" s="37"/>
       <c r="G171" s="37" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H171" s="37"/>
       <c r="I171" s="26" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J171" s="37" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K171" s="37"/>
       <c r="L171" s="37" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M171" s="37"/>
       <c r="N171" s="26" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O171" s="22" t="e">
         <f t="shared" si="10"/>
@@ -9323,26 +9275,26 @@
         <v>30</v>
       </c>
       <c r="E172" s="37" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F172" s="37"/>
       <c r="G172" s="37" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H172" s="37"/>
       <c r="I172" s="26" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J172" s="37" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K172" s="37"/>
       <c r="L172" s="37" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M172" s="37"/>
       <c r="N172" s="26" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O172" s="22" t="e">
         <f t="shared" si="10"/>
@@ -9360,26 +9312,26 @@
         <v>54</v>
       </c>
       <c r="E173" s="37" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F173" s="37"/>
       <c r="G173" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H173" s="37"/>
       <c r="I173" s="26" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J173" s="37" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K173" s="37"/>
       <c r="L173" s="37" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M173" s="37"/>
       <c r="N173" s="26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O173" s="22" t="e">
         <f t="shared" si="10"/>
@@ -9397,26 +9349,26 @@
         <v>55</v>
       </c>
       <c r="E174" s="37" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F174" s="37"/>
       <c r="G174" s="37" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H174" s="37"/>
       <c r="I174" s="26" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J174" s="37" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K174" s="37"/>
       <c r="L174" s="37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M174" s="37"/>
       <c r="N174" s="26" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O174" s="22" t="e">
         <f t="shared" si="10"/>
@@ -9434,26 +9386,26 @@
         <v>53</v>
       </c>
       <c r="E175" s="37" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F175" s="37"/>
       <c r="G175" s="37" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H175" s="37"/>
       <c r="I175" s="26" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J175" s="37" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K175" s="37"/>
       <c r="L175" s="37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M175" s="37"/>
       <c r="N175" s="26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O175" s="22" t="e">
         <f t="shared" si="10"/>
@@ -9471,26 +9423,26 @@
         <v>53</v>
       </c>
       <c r="E176" s="37" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F176" s="37"/>
       <c r="G176" s="37" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H176" s="37"/>
       <c r="I176" s="26" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J176" s="37" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K176" s="37"/>
       <c r="L176" s="37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M176" s="37"/>
       <c r="N176" s="26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O176" s="22" t="e">
         <f t="shared" si="10"/>
@@ -9510,26 +9462,26 @@
         <v>50</v>
       </c>
       <c r="E177" s="37" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F177" s="37"/>
       <c r="G177" s="37" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H177" s="37"/>
       <c r="I177" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="J177" s="37" t="s">
         <v>558</v>
-      </c>
-      <c r="J177" s="37" t="s">
-        <v>559</v>
       </c>
       <c r="K177" s="37"/>
       <c r="L177" s="37" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M177" s="37"/>
       <c r="N177" s="26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O177" s="22" t="e">
         <f t="shared" si="10"/>
@@ -9547,26 +9499,26 @@
         <v>51</v>
       </c>
       <c r="E178" s="37" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F178" s="37"/>
       <c r="G178" s="37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H178" s="37"/>
       <c r="I178" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J178" s="37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K178" s="37"/>
       <c r="L178" s="37" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M178" s="37"/>
       <c r="N178" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O178" s="22" t="e">
         <f t="shared" si="10"/>
@@ -9584,26 +9536,26 @@
         <v>52</v>
       </c>
       <c r="E179" s="37" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F179" s="37"/>
       <c r="G179" s="37" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H179" s="37"/>
       <c r="I179" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J179" s="37" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K179" s="37"/>
       <c r="L179" s="37" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M179" s="37"/>
       <c r="N179" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O179" s="22" t="e">
         <f t="shared" si="10"/>
@@ -9621,26 +9573,26 @@
         <v>30</v>
       </c>
       <c r="E180" s="37" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F180" s="37"/>
       <c r="G180" s="37" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H180" s="37"/>
       <c r="I180" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J180" s="37" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K180" s="37"/>
       <c r="L180" s="37" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M180" s="37"/>
       <c r="N180" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O180" s="22" t="e">
         <f t="shared" si="10"/>
@@ -9658,26 +9610,26 @@
         <v>54</v>
       </c>
       <c r="E181" s="37" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F181" s="37"/>
       <c r="G181" s="37" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H181" s="37"/>
       <c r="I181" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J181" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K181" s="37"/>
       <c r="L181" s="37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M181" s="37"/>
       <c r="N181" s="26" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O181" s="22" t="e">
         <f t="shared" si="10"/>
@@ -9695,26 +9647,26 @@
         <v>55</v>
       </c>
       <c r="E182" s="37" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F182" s="37"/>
       <c r="G182" s="37" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H182" s="37"/>
       <c r="I182" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J182" s="37" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K182" s="37"/>
       <c r="L182" s="37" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M182" s="37"/>
       <c r="N182" s="26" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O182" s="22" t="e">
         <f t="shared" si="10"/>
@@ -9732,26 +9684,26 @@
         <v>53</v>
       </c>
       <c r="E183" s="37" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F183" s="37"/>
       <c r="G183" s="37" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H183" s="37"/>
       <c r="I183" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J183" s="37" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K183" s="37"/>
       <c r="L183" s="37" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M183" s="37"/>
       <c r="N183" s="26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O183" s="22" t="e">
         <f t="shared" si="10"/>
@@ -9847,26 +9799,26 @@
         <v>53</v>
       </c>
       <c r="E187" s="37" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F187" s="37"/>
       <c r="G187" s="37" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H187" s="37"/>
       <c r="I187" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="J187" s="37" t="s">
         <v>600</v>
-      </c>
-      <c r="J187" s="37" t="s">
-        <v>601</v>
       </c>
       <c r="K187" s="37"/>
       <c r="L187" s="37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M187" s="37"/>
       <c r="N187" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O187" s="22" t="e">
         <f>IF(ABS(((J187-N187)/(E187-I187)-1)*100)&gt;ABS(((L187-N187)/(G187-I187)-1)*100),((J187-N187)/(E187-I187)-1)*100,((L187-N187)/(G187-I187)-1)*100)</f>
@@ -10011,19 +9963,19 @@
       </c>
       <c r="E194" s="34"/>
       <c r="F194" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G194" s="33"/>
       <c r="H194" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I194" s="33"/>
       <c r="J194" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K194" s="33"/>
       <c r="L194" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M194" s="33"/>
       <c r="N194" s="15"/>
@@ -10041,19 +9993,19 @@
       </c>
       <c r="E195" s="34"/>
       <c r="F195" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G195" s="33"/>
       <c r="H195" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I195" s="33"/>
       <c r="J195" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K195" s="33"/>
       <c r="L195" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M195" s="33"/>
       <c r="N195" s="15"/>
@@ -10071,19 +10023,19 @@
       </c>
       <c r="E196" s="34"/>
       <c r="F196" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G196" s="33"/>
       <c r="H196" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I196" s="33"/>
       <c r="J196" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K196" s="33"/>
       <c r="L196" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M196" s="33"/>
       <c r="N196" s="15"/>
@@ -10101,19 +10053,19 @@
       </c>
       <c r="E197" s="34"/>
       <c r="F197" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G197" s="33"/>
       <c r="H197" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I197" s="33"/>
       <c r="J197" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K197" s="33"/>
       <c r="L197" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M197" s="33"/>
       <c r="N197" s="15"/>
@@ -10131,19 +10083,19 @@
       </c>
       <c r="E198" s="34"/>
       <c r="F198" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G198" s="33"/>
       <c r="H198" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I198" s="33"/>
       <c r="J198" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K198" s="33"/>
       <c r="L198" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M198" s="33"/>
       <c r="N198" s="15"/>
@@ -10161,19 +10113,19 @@
       </c>
       <c r="E199" s="34"/>
       <c r="F199" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G199" s="33"/>
       <c r="H199" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I199" s="33"/>
       <c r="J199" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K199" s="33"/>
       <c r="L199" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M199" s="33"/>
       <c r="N199" s="15"/>
@@ -10191,19 +10143,19 @@
       </c>
       <c r="E200" s="34"/>
       <c r="F200" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G200" s="33"/>
       <c r="H200" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I200" s="33"/>
       <c r="J200" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K200" s="33"/>
       <c r="L200" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M200" s="33"/>
       <c r="N200" s="15"/>
@@ -10221,19 +10173,19 @@
       </c>
       <c r="E201" s="34"/>
       <c r="F201" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G201" s="33"/>
       <c r="H201" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I201" s="33"/>
       <c r="J201" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K201" s="33"/>
       <c r="L201" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M201" s="33"/>
       <c r="N201" s="15"/>
@@ -10407,29 +10359,29 @@
       <c r="P210" s="15"/>
     </row>
     <row r="211" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="B211" s="57"/>
+      <c r="A211" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B211" s="58"/>
       <c r="C211" s="23"/>
       <c r="D211" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E211" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="E211" s="59" t="s">
+      <c r="F211" s="61"/>
+      <c r="G211" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F211" s="60"/>
-      <c r="G211" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="H211" s="57" t="s">
+      <c r="H211" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="I211" s="58"/>
+      <c r="J211" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="I211" s="57"/>
-      <c r="J211" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="K211" s="58"/>
+      <c r="K211" s="59"/>
       <c r="L211" s="15"/>
       <c r="M211" s="15"/>
       <c r="N211" s="15"/>
